--- a/uniprot_evaluation/KeyWordsByUniprotBeforeWithOrWithoutNITEBefore4Xsquare2nd.xlsx
+++ b/uniprot_evaluation/KeyWordsByUniprotBeforeWithOrWithoutNITEBefore4Xsquare2nd.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="KeyWordsByUniprotBeforeWithOrWi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1133,9 +1133,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1151,6 +1151,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1174,17 +1192,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1515,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
@@ -1562,15 +1608,15 @@
         <v>2941</v>
       </c>
       <c r="E2" s="3">
-        <f>$D2*B$363/$D$363</f>
+        <f t="shared" ref="E2:E65" si="0">$D2*B$363/$D$363</f>
         <v>233.44833140350991</v>
       </c>
       <c r="F2" s="3">
-        <f>$D2*C$363/$D$363</f>
+        <f t="shared" ref="F2:F65" si="1">$D2*C$363/$D$363</f>
         <v>2707.5516685964899</v>
       </c>
       <c r="G2" s="2">
-        <f>_xlfn.CHISQ.TEST(B2:C2,E2:F2)</f>
+        <f t="shared" ref="G2:G65" si="2">_xlfn.CHISQ.TEST(B2:C2,E2:F2)</f>
         <v>1.1161800499297976E-11</v>
       </c>
       <c r="H2" s="2">
@@ -1592,19 +1638,19 @@
         <v>1699</v>
       </c>
       <c r="E3" s="3">
-        <f>$D3*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>134.86185482984132</v>
       </c>
       <c r="F3" s="3">
-        <f>$D3*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>1564.1381451701586</v>
       </c>
       <c r="G3" s="2">
-        <f>_xlfn.CHISQ.TEST(B3:C3,E3:F3)</f>
+        <f t="shared" si="2"/>
         <v>1.1236337211674078E-10</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H66" si="0">B3-E3</f>
+        <f t="shared" ref="H3:H66" si="3">B3-E3</f>
         <v>-71.86185482984132</v>
       </c>
     </row>
@@ -1622,19 +1668,19 @@
         <v>825</v>
       </c>
       <c r="E4" s="3">
-        <f>$D4*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>65.486186129852314</v>
       </c>
       <c r="F4" s="3">
-        <f>$D4*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>759.51381387014771</v>
       </c>
       <c r="G4" s="2">
-        <f>_xlfn.CHISQ.TEST(B4:C4,E4:F4)</f>
+        <f t="shared" si="2"/>
         <v>9.1404477332997886E-8</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-41.486186129852314</v>
       </c>
     </row>
@@ -1652,19 +1698,19 @@
         <v>3256</v>
       </c>
       <c r="E5" s="3">
-        <f>$D5*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>258.45214792581714</v>
       </c>
       <c r="F5" s="3">
-        <f>$D5*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>2997.5478520741826</v>
       </c>
       <c r="G5" s="2">
-        <f>_xlfn.CHISQ.TEST(B5:C5,E5:F5)</f>
+        <f t="shared" si="2"/>
         <v>1.8319433833715636E-7</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-80.452147925817144</v>
       </c>
     </row>
@@ -1682,19 +1728,19 @@
         <v>1285</v>
       </c>
       <c r="E6" s="3">
-        <f>$D6*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>101.99969597195179</v>
       </c>
       <c r="F6" s="3">
-        <f>$D6*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>1183.0003040280483</v>
       </c>
       <c r="G6" s="2">
-        <f>_xlfn.CHISQ.TEST(B6:C6,E6:F6)</f>
+        <f t="shared" si="2"/>
         <v>2.4722204285066593E-7</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50.000304028048205</v>
       </c>
     </row>
@@ -1712,19 +1758,19 @@
         <v>4</v>
       </c>
       <c r="E7" s="3">
-        <f>$D7*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>0.31750878123564763</v>
       </c>
       <c r="F7" s="3">
-        <f>$D7*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>3.6824912187643526</v>
       </c>
       <c r="G7" s="2">
-        <f>_xlfn.CHISQ.TEST(B7:C7,E7:F7)</f>
+        <f t="shared" si="2"/>
         <v>6.9923804764132259E-7</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.6824912187643521</v>
       </c>
     </row>
@@ -1742,19 +1788,19 @@
         <v>4750</v>
       </c>
       <c r="E8" s="3">
-        <f>$D8*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>377.04167771733154</v>
       </c>
       <c r="F8" s="3">
-        <f>$D8*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>4372.9583222826686</v>
       </c>
       <c r="G8" s="2">
-        <f>_xlfn.CHISQ.TEST(B8:C8,E8:F8)</f>
+        <f t="shared" si="2"/>
         <v>3.050257744634696E-6</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>86.958322282668462</v>
       </c>
     </row>
@@ -1772,19 +1818,19 @@
         <v>1960</v>
       </c>
       <c r="E9" s="3">
-        <f>$D9*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>155.57930280546734</v>
       </c>
       <c r="F9" s="3">
-        <f>$D9*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>1804.4206971945327</v>
       </c>
       <c r="G9" s="2">
-        <f>_xlfn.CHISQ.TEST(B9:C9,E9:F9)</f>
+        <f t="shared" si="2"/>
         <v>5.1035155514453561E-6</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-54.579302805467336</v>
       </c>
     </row>
@@ -1802,19 +1848,19 @@
         <v>685</v>
       </c>
       <c r="E10" s="3">
-        <f>$D10*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>54.373378786604654</v>
       </c>
       <c r="F10" s="3">
-        <f>$D10*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>630.62662121339531</v>
       </c>
       <c r="G10" s="2">
-        <f>_xlfn.CHISQ.TEST(B10:C10,E10:F10)</f>
+        <f t="shared" si="2"/>
         <v>7.8177264133604021E-6</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>31.626621213395346</v>
       </c>
     </row>
@@ -1832,19 +1878,19 @@
         <v>8</v>
       </c>
       <c r="E11" s="3">
-        <f>$D11*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>0.63501756247129526</v>
       </c>
       <c r="F11" s="3">
-        <f>$D11*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>7.3649824375287052</v>
       </c>
       <c r="G11" s="2">
-        <f>_xlfn.CHISQ.TEST(B11:C11,E11:F11)</f>
+        <f t="shared" si="2"/>
         <v>1.0776469730086165E-5</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.3649824375287047</v>
       </c>
     </row>
@@ -1862,19 +1908,19 @@
         <v>206</v>
       </c>
       <c r="E12" s="3">
-        <f>$D12*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>16.351702233635852</v>
       </c>
       <c r="F12" s="3">
-        <f>$D12*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>189.64829776636415</v>
       </c>
       <c r="G12" s="2">
-        <f>_xlfn.CHISQ.TEST(B12:C12,E12:F12)</f>
+        <f t="shared" si="2"/>
         <v>1.7795762776303524E-5</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16.648297766364148</v>
       </c>
     </row>
@@ -1892,19 +1938,19 @@
         <v>1329</v>
       </c>
       <c r="E13" s="3">
-        <f>$D13*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>105.49229256554392</v>
       </c>
       <c r="F13" s="3">
-        <f>$D13*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>1223.5077074344561</v>
       </c>
       <c r="G13" s="2">
-        <f>_xlfn.CHISQ.TEST(B13:C13,E13:F13)</f>
+        <f t="shared" si="2"/>
         <v>2.5499722740286632E-5</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-41.49229256554392</v>
       </c>
     </row>
@@ -1922,19 +1968,19 @@
         <v>270</v>
       </c>
       <c r="E14" s="3">
-        <f>$D14*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>21.431842733406214</v>
       </c>
       <c r="F14" s="3">
-        <f>$D14*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>248.56815726659377</v>
       </c>
       <c r="G14" s="2">
-        <f>_xlfn.CHISQ.TEST(B14:C14,E14:F14)</f>
+        <f t="shared" si="2"/>
         <v>2.9123896817505731E-5</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>18.568157266593786</v>
       </c>
     </row>
@@ -1952,19 +1998,19 @@
         <v>2635</v>
       </c>
       <c r="E15" s="3">
-        <f>$D15*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>209.15890963898286</v>
       </c>
       <c r="F15" s="3">
-        <f>$D15*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>2425.841090361017</v>
       </c>
       <c r="G15" s="2">
-        <f>_xlfn.CHISQ.TEST(B15:C15,E15:F15)</f>
+        <f t="shared" si="2"/>
         <v>3.8031513162695716E-5</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-57.158909638982863</v>
       </c>
     </row>
@@ -1982,19 +2028,19 @@
         <v>13</v>
       </c>
       <c r="E16" s="3">
-        <f>$D16*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>1.0319035390158546</v>
       </c>
       <c r="F16" s="3">
-        <f>$D16*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>11.968096460984146</v>
       </c>
       <c r="G16" s="2">
-        <f>_xlfn.CHISQ.TEST(B16:C16,E16:F16)</f>
+        <f t="shared" si="2"/>
         <v>4.6772760179155401E-5</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.9680964609841451</v>
       </c>
     </row>
@@ -2012,19 +2058,19 @@
         <v>9</v>
       </c>
       <c r="E17" s="3">
-        <f>$D17*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>0.71439475778020711</v>
       </c>
       <c r="F17" s="3">
-        <f>$D17*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>8.285605242219793</v>
       </c>
       <c r="G17" s="2">
-        <f>_xlfn.CHISQ.TEST(B17:C17,E17:F17)</f>
+        <f t="shared" si="2"/>
         <v>5.0911546368774477E-5</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.285605242219793</v>
       </c>
     </row>
@@ -2042,19 +2088,19 @@
         <v>52</v>
       </c>
       <c r="E18" s="3">
-        <f>$D18*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>4.1276141560634185</v>
       </c>
       <c r="F18" s="3">
-        <f>$D18*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>47.872385843936584</v>
       </c>
       <c r="G18" s="2">
-        <f>_xlfn.CHISQ.TEST(B18:C18,E18:F18)</f>
+        <f t="shared" si="2"/>
         <v>5.3802892134622325E-5</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.8723858439365815</v>
       </c>
     </row>
@@ -2072,19 +2118,19 @@
         <v>47</v>
       </c>
       <c r="E19" s="3">
-        <f>$D19*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>3.7307281795188594</v>
       </c>
       <c r="F19" s="3">
-        <f>$D19*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>43.269271820481137</v>
       </c>
       <c r="G19" s="2">
-        <f>_xlfn.CHISQ.TEST(B19:C19,E19:F19)</f>
+        <f t="shared" si="2"/>
         <v>8.7666812287965661E-5</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.2692718204811406</v>
       </c>
     </row>
@@ -2102,19 +2148,19 @@
         <v>267</v>
       </c>
       <c r="E20" s="3">
-        <f>$D20*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>21.19371114747948</v>
       </c>
       <c r="F20" s="3">
-        <f>$D20*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>245.80628885252051</v>
       </c>
       <c r="G20" s="2">
-        <f>_xlfn.CHISQ.TEST(B20:C20,E20:F20)</f>
+        <f t="shared" si="2"/>
         <v>9.9228837187421065E-5</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-17.19371114747948</v>
       </c>
     </row>
@@ -2132,19 +2178,19 @@
         <v>879</v>
       </c>
       <c r="E21" s="3">
-        <f>$D21*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>69.772554676533559</v>
       </c>
       <c r="F21" s="3">
-        <f>$D21*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>809.22744532346644</v>
       </c>
       <c r="G21" s="2">
-        <f>_xlfn.CHISQ.TEST(B21:C21,E21:F21)</f>
+        <f t="shared" si="2"/>
         <v>1.2325981339218373E-4</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-30.772554676533559</v>
       </c>
     </row>
@@ -2162,19 +2208,19 @@
         <v>10</v>
       </c>
       <c r="E22" s="3">
-        <f>$D22*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>0.79377195308911908</v>
       </c>
       <c r="F22" s="3">
-        <f>$D22*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>9.2062280469108817</v>
       </c>
       <c r="G22" s="2">
-        <f>_xlfn.CHISQ.TEST(B22:C22,E22:F22)</f>
+        <f t="shared" si="2"/>
         <v>1.7638203473759081E-4</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2062280469108808</v>
       </c>
     </row>
@@ -2192,19 +2238,19 @@
         <v>2444</v>
       </c>
       <c r="E23" s="3">
-        <f>$D23*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>193.9978653349807</v>
       </c>
       <c r="F23" s="3">
-        <f>$D23*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>2250.0021346650192</v>
       </c>
       <c r="G23" s="2">
-        <f>_xlfn.CHISQ.TEST(B23:C23,E23:F23)</f>
+        <f t="shared" si="2"/>
         <v>1.8290350340606889E-4</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>50.002134665019298</v>
       </c>
     </row>
@@ -2222,19 +2268,19 @@
         <v>467</v>
       </c>
       <c r="E24" s="3">
-        <f>$D24*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>37.069150209261856</v>
       </c>
       <c r="F24" s="3">
-        <f>$D24*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>429.93084979073814</v>
       </c>
       <c r="G24" s="2">
-        <f>_xlfn.CHISQ.TEST(B24:C24,E24:F24)</f>
+        <f t="shared" si="2"/>
         <v>3.102168579137274E-4</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-21.069150209261856</v>
       </c>
     </row>
@@ -2252,19 +2298,19 @@
         <v>636</v>
       </c>
       <c r="E25" s="3">
-        <f>$D25*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>50.483896216467969</v>
       </c>
       <c r="F25" s="3">
-        <f>$D25*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>585.516103783532</v>
       </c>
       <c r="G25" s="2">
-        <f>_xlfn.CHISQ.TEST(B25:C25,E25:F25)</f>
+        <f t="shared" si="2"/>
         <v>3.2891206973203422E-4</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-24.483896216467969</v>
       </c>
     </row>
@@ -2282,19 +2328,19 @@
         <v>969</v>
       </c>
       <c r="E26" s="3">
-        <f>$D26*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>76.91650225433564</v>
       </c>
       <c r="F26" s="3">
-        <f>$D26*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>892.08349774566432</v>
       </c>
       <c r="G26" s="2">
-        <f>_xlfn.CHISQ.TEST(B26:C26,E26:F26)</f>
+        <f t="shared" si="2"/>
         <v>3.5020965275511893E-4</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30.08349774566436</v>
       </c>
     </row>
@@ -2312,19 +2358,19 @@
         <v>9759</v>
       </c>
       <c r="E27" s="3">
-        <f>$D27*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>774.64204901967128</v>
       </c>
       <c r="F27" s="3">
-        <f>$D27*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>8984.3579509803294</v>
       </c>
       <c r="G27" s="2">
-        <f>_xlfn.CHISQ.TEST(B27:C27,E27:F27)</f>
+        <f t="shared" si="2"/>
         <v>3.5589272595226023E-4</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>95.357950980328724</v>
       </c>
     </row>
@@ -2342,19 +2388,19 @@
         <v>32</v>
       </c>
       <c r="E28" s="3">
-        <f>$D28*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>2.540070249885181</v>
       </c>
       <c r="F28" s="3">
-        <f>$D28*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>29.459929750114821</v>
       </c>
       <c r="G28" s="2">
-        <f>_xlfn.CHISQ.TEST(B28:C28,E28:F28)</f>
+        <f t="shared" si="2"/>
         <v>3.5636432713905051E-4</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.459929750114819</v>
       </c>
     </row>
@@ -2372,19 +2418,19 @@
         <v>16</v>
       </c>
       <c r="E29" s="3">
-        <f>$D29*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>1.2700351249425905</v>
       </c>
       <c r="F29" s="3">
-        <f>$D29*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>14.72996487505741</v>
       </c>
       <c r="G29" s="2">
-        <f>_xlfn.CHISQ.TEST(B29:C29,E29:F29)</f>
+        <f t="shared" si="2"/>
         <v>5.6162800448427471E-4</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.7299648750574095</v>
       </c>
     </row>
@@ -2402,19 +2448,19 @@
         <v>870</v>
       </c>
       <c r="E30" s="3">
-        <f>$D30*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>69.058159918753361</v>
       </c>
       <c r="F30" s="3">
-        <f>$D30*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>800.9418400812466</v>
       </c>
       <c r="G30" s="2">
-        <f>_xlfn.CHISQ.TEST(B30:C30,E30:F30)</f>
+        <f t="shared" si="2"/>
         <v>6.9001542007065631E-4</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-27.058159918753361</v>
       </c>
     </row>
@@ -2432,19 +2478,19 @@
         <v>34</v>
       </c>
       <c r="E31" s="3">
-        <f>$D31*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>2.6988246405030045</v>
       </c>
       <c r="F31" s="3">
-        <f>$D31*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>31.301175359496995</v>
       </c>
       <c r="G31" s="2">
-        <f>_xlfn.CHISQ.TEST(B31:C31,E31:F31)</f>
+        <f t="shared" si="2"/>
         <v>7.7063376647262534E-4</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.3011753594969955</v>
       </c>
     </row>
@@ -2462,19 +2508,19 @@
         <v>22</v>
       </c>
       <c r="E32" s="3">
-        <f>$D32*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>1.7462982967960619</v>
       </c>
       <c r="F32" s="3">
-        <f>$D32*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>20.253701703203937</v>
       </c>
       <c r="G32" s="2">
-        <f>_xlfn.CHISQ.TEST(B32:C32,E32:F32)</f>
+        <f t="shared" si="2"/>
         <v>7.9421679452984192E-4</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.2537017032039381</v>
       </c>
     </row>
@@ -2492,19 +2538,19 @@
         <v>314</v>
       </c>
       <c r="E33" s="3">
-        <f>$D33*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>24.924439326998339</v>
       </c>
       <c r="F33" s="3">
-        <f>$D33*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>289.07556067300169</v>
       </c>
       <c r="G33" s="2">
-        <f>_xlfn.CHISQ.TEST(B33:C33,E33:F33)</f>
+        <f t="shared" si="2"/>
         <v>8.861553914339237E-4</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-15.924439326998339</v>
       </c>
     </row>
@@ -2522,19 +2568,19 @@
         <v>48</v>
       </c>
       <c r="E34" s="3">
-        <f>$D34*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>3.8101053748277716</v>
       </c>
       <c r="F34" s="3">
-        <f>$D34*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>44.189894625172229</v>
       </c>
       <c r="G34" s="2">
-        <f>_xlfn.CHISQ.TEST(B34:C34,E34:F34)</f>
+        <f t="shared" si="2"/>
         <v>9.4970122793521438E-4</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.1898946251722284</v>
       </c>
     </row>
@@ -2552,19 +2598,19 @@
         <v>164</v>
       </c>
       <c r="E35" s="3">
-        <f>$D35*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>13.017860030661552</v>
       </c>
       <c r="F35" s="3">
-        <f>$D35*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>150.98213996933845</v>
       </c>
       <c r="G35" s="2">
-        <f>_xlfn.CHISQ.TEST(B35:C35,E35:F35)</f>
+        <f t="shared" si="2"/>
         <v>1.5122885127105674E-3</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10.982139969338448</v>
       </c>
     </row>
@@ -2582,19 +2628,19 @@
         <v>667</v>
       </c>
       <c r="E36" s="3">
-        <f>$D36*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>52.944589271044237</v>
       </c>
       <c r="F36" s="3">
-        <f>$D36*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>614.05541072895574</v>
       </c>
       <c r="G36" s="2">
-        <f>_xlfn.CHISQ.TEST(B36:C36,E36:F36)</f>
+        <f t="shared" si="2"/>
         <v>1.5825670292121865E-3</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>22.055410728955763</v>
       </c>
     </row>
@@ -2612,19 +2658,19 @@
         <v>4</v>
       </c>
       <c r="E37" s="3">
-        <f>$D37*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>0.31750878123564763</v>
       </c>
       <c r="F37" s="3">
-        <f>$D37*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>3.6824912187643526</v>
       </c>
       <c r="G37" s="2">
-        <f>_xlfn.CHISQ.TEST(B37:C37,E37:F37)</f>
+        <f t="shared" si="2"/>
         <v>1.8584938406439318E-3</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6824912187643524</v>
       </c>
     </row>
@@ -2642,19 +2688,19 @@
         <v>239</v>
       </c>
       <c r="E38" s="3">
-        <f>$D38*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>18.971149678829946</v>
       </c>
       <c r="F38" s="3">
-        <f>$D38*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>220.02885032117007</v>
       </c>
       <c r="G38" s="2">
-        <f>_xlfn.CHISQ.TEST(B38:C38,E38:F38)</f>
+        <f t="shared" si="2"/>
         <v>1.9106603475839811E-3</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-12.971149678829946</v>
       </c>
     </row>
@@ -2672,19 +2718,19 @@
         <v>135</v>
       </c>
       <c r="E39" s="3">
-        <f>$D39*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>10.715921366703107</v>
       </c>
       <c r="F39" s="3">
-        <f>$D39*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>124.28407863329689</v>
       </c>
       <c r="G39" s="2">
-        <f>_xlfn.CHISQ.TEST(B39:C39,E39:F39)</f>
+        <f t="shared" si="2"/>
         <v>1.9791386797935822E-3</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-9.7159213667031068</v>
       </c>
     </row>
@@ -2702,19 +2748,19 @@
         <v>381</v>
       </c>
       <c r="E40" s="3">
-        <f>$D40*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>30.242711412695435</v>
       </c>
       <c r="F40" s="3">
-        <f>$D40*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>350.75728858730457</v>
       </c>
       <c r="G40" s="2">
-        <f>_xlfn.CHISQ.TEST(B40:C40,E40:F40)</f>
+        <f t="shared" si="2"/>
         <v>2.0820325113557188E-3</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-16.242711412695435</v>
       </c>
     </row>
@@ -2732,19 +2778,19 @@
         <v>52</v>
       </c>
       <c r="E41" s="3">
-        <f>$D41*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>4.1276141560634185</v>
       </c>
       <c r="F41" s="3">
-        <f>$D41*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>47.872385843936584</v>
       </c>
       <c r="G41" s="2">
-        <f>_xlfn.CHISQ.TEST(B41:C41,E41:F41)</f>
+        <f t="shared" si="2"/>
         <v>2.5912251091410698E-3</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.8723858439365815</v>
       </c>
     </row>
@@ -2762,19 +2808,19 @@
         <v>355</v>
       </c>
       <c r="E42" s="3">
-        <f>$D42*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>28.178904334663727</v>
       </c>
       <c r="F42" s="3">
-        <f>$D42*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>326.82109566533626</v>
       </c>
       <c r="G42" s="2">
-        <f>_xlfn.CHISQ.TEST(B42:C42,E42:F42)</f>
+        <f t="shared" si="2"/>
         <v>2.8811124068015828E-3</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-15.178904334663727</v>
       </c>
     </row>
@@ -2792,19 +2838,19 @@
         <v>265</v>
       </c>
       <c r="E43" s="3">
-        <f>$D43*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>21.034956756861654</v>
       </c>
       <c r="F43" s="3">
-        <f>$D43*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>243.96504324313835</v>
       </c>
       <c r="G43" s="2">
-        <f>_xlfn.CHISQ.TEST(B43:C43,E43:F43)</f>
+        <f t="shared" si="2"/>
         <v>3.2170383314706363E-3</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12.965043243138346</v>
       </c>
     </row>
@@ -2822,19 +2868,19 @@
         <v>456</v>
       </c>
       <c r="E44" s="3">
-        <f>$D44*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>36.196001060863829</v>
       </c>
       <c r="F44" s="3">
-        <f>$D44*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>419.80399893913619</v>
       </c>
       <c r="G44" s="2">
-        <f>_xlfn.CHISQ.TEST(B44:C44,E44:F44)</f>
+        <f t="shared" si="2"/>
         <v>3.6027958545740255E-3</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>16.803998939136171</v>
       </c>
     </row>
@@ -2852,19 +2898,19 @@
         <v>900</v>
       </c>
       <c r="E45" s="3">
-        <f>$D45*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>71.439475778020707</v>
       </c>
       <c r="F45" s="3">
-        <f>$D45*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>828.56052422197934</v>
       </c>
       <c r="G45" s="2">
-        <f>_xlfn.CHISQ.TEST(B45:C45,E45:F45)</f>
+        <f t="shared" si="2"/>
         <v>3.8491526917350588E-3</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-23.439475778020707</v>
       </c>
     </row>
@@ -2882,19 +2928,19 @@
         <v>54</v>
       </c>
       <c r="E46" s="3">
-        <f>$D46*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>4.2863685466812429</v>
       </c>
       <c r="F46" s="3">
-        <f>$D46*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>49.713631453318754</v>
       </c>
       <c r="G46" s="2">
-        <f>_xlfn.CHISQ.TEST(B46:C46,E46:F46)</f>
+        <f t="shared" si="2"/>
         <v>4.0243106744386114E-3</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.7136314533187571</v>
       </c>
     </row>
@@ -2912,19 +2958,19 @@
         <v>1544</v>
       </c>
       <c r="E47" s="3">
-        <f>$D47*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>122.55838955695998</v>
       </c>
       <c r="F47" s="3">
-        <f>$D47*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>1421.44161044304</v>
       </c>
       <c r="G47" s="2">
-        <f>_xlfn.CHISQ.TEST(B47:C47,E47:F47)</f>
+        <f t="shared" si="2"/>
         <v>4.1587581188139095E-3</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>30.44161044304002</v>
       </c>
     </row>
@@ -2942,19 +2988,19 @@
         <v>119</v>
       </c>
       <c r="E48" s="3">
-        <f>$D48*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>9.4458862417605172</v>
       </c>
       <c r="F48" s="3">
-        <f>$D48*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>109.55411375823948</v>
       </c>
       <c r="G48" s="2">
-        <f>_xlfn.CHISQ.TEST(B48:C48,E48:F48)</f>
+        <f t="shared" si="2"/>
         <v>4.1824097739852888E-3</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-8.4458862417605172</v>
       </c>
     </row>
@@ -2972,19 +3018,19 @@
         <v>14</v>
       </c>
       <c r="E49" s="3">
-        <f>$D49*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>1.1112807343247666</v>
       </c>
       <c r="F49" s="3">
-        <f>$D49*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>12.888719265675233</v>
       </c>
       <c r="G49" s="2">
-        <f>_xlfn.CHISQ.TEST(B49:C49,E49:F49)</f>
+        <f t="shared" si="2"/>
         <v>4.2906509447315977E-3</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8887192656752334</v>
       </c>
     </row>
@@ -3002,19 +3048,19 @@
         <v>757</v>
       </c>
       <c r="E50" s="3">
-        <f>$D50*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>60.08853684884631</v>
       </c>
       <c r="F50" s="3">
-        <f>$D50*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>696.91146315115373</v>
       </c>
       <c r="G50" s="2">
-        <f>_xlfn.CHISQ.TEST(B50:C50,E50:F50)</f>
+        <f t="shared" si="2"/>
         <v>4.5772611526904211E-3</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-21.08853684884631</v>
       </c>
     </row>
@@ -3032,19 +3078,19 @@
         <v>33</v>
       </c>
       <c r="E51" s="3">
-        <f>$D51*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>2.6194474451940928</v>
       </c>
       <c r="F51" s="3">
-        <f>$D51*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>30.380552554805906</v>
       </c>
       <c r="G51" s="2">
-        <f>_xlfn.CHISQ.TEST(B51:C51,E51:F51)</f>
+        <f t="shared" si="2"/>
         <v>4.7893496648493752E-3</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.3805525548059077</v>
       </c>
     </row>
@@ -3062,19 +3108,19 @@
         <v>193</v>
       </c>
       <c r="E52" s="3">
-        <f>$D52*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>15.319798694619998</v>
       </c>
       <c r="F52" s="3">
-        <f>$D52*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>177.68020130538</v>
       </c>
       <c r="G52" s="2">
-        <f>_xlfn.CHISQ.TEST(B52:C52,E52:F52)</f>
+        <f t="shared" si="2"/>
         <v>5.9974933264724337E-3</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-10.319798694619998</v>
       </c>
     </row>
@@ -3092,19 +3138,19 @@
         <v>27</v>
       </c>
       <c r="E53" s="3">
-        <f>$D53*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>2.1431842733406214</v>
       </c>
       <c r="F53" s="3">
-        <f>$D53*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>24.856815726659377</v>
       </c>
       <c r="G53" s="2">
-        <f>_xlfn.CHISQ.TEST(B53:C53,E53:F53)</f>
+        <f t="shared" si="2"/>
         <v>6.0375918888762453E-3</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.8568157266593786</v>
       </c>
     </row>
@@ -3122,19 +3168,19 @@
         <v>670</v>
       </c>
       <c r="E54" s="3">
-        <f>$D54*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>53.182720856970974</v>
       </c>
       <c r="F54" s="3">
-        <f>$D54*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>616.81727914302905</v>
       </c>
       <c r="G54" s="2">
-        <f>_xlfn.CHISQ.TEST(B54:C54,E54:F54)</f>
+        <f t="shared" si="2"/>
         <v>6.1164277370088071E-3</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-19.182720856970974</v>
       </c>
     </row>
@@ -3152,19 +3198,19 @@
         <v>576</v>
       </c>
       <c r="E55" s="3">
-        <f>$D55*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>45.721264497933255</v>
       </c>
       <c r="F55" s="3">
-        <f>$D55*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>530.27873550206675</v>
       </c>
       <c r="G55" s="2">
-        <f>_xlfn.CHISQ.TEST(B55:C55,E55:F55)</f>
+        <f t="shared" si="2"/>
         <v>6.3054536808620385E-3</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-17.721264497933255</v>
       </c>
     </row>
@@ -3182,19 +3228,19 @@
         <v>179</v>
       </c>
       <c r="E56" s="3">
-        <f>$D56*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>14.208517960295231</v>
       </c>
       <c r="F56" s="3">
-        <f>$D56*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>164.79148203970476</v>
       </c>
       <c r="G56" s="2">
-        <f>_xlfn.CHISQ.TEST(B56:C56,E56:F56)</f>
+        <f t="shared" si="2"/>
         <v>6.7837013133880573E-3</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.7914820397047695</v>
       </c>
     </row>
@@ -3212,19 +3258,19 @@
         <v>3112</v>
       </c>
       <c r="E57" s="3">
-        <f>$D57*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>247.02183180133383</v>
       </c>
       <c r="F57" s="3">
-        <f>$D57*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>2864.978168198666</v>
       </c>
       <c r="G57" s="2">
-        <f>_xlfn.CHISQ.TEST(B57:C57,E57:F57)</f>
+        <f t="shared" si="2"/>
         <v>7.9561820163146033E-3</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-40.021831801333832</v>
       </c>
     </row>
@@ -3242,19 +3288,19 @@
         <v>108</v>
       </c>
       <c r="E58" s="3">
-        <f>$D58*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>8.5727370933624858</v>
       </c>
       <c r="F58" s="3">
-        <f>$D58*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>99.427262906637509</v>
       </c>
       <c r="G58" s="2">
-        <f>_xlfn.CHISQ.TEST(B58:C58,E58:F58)</f>
+        <f t="shared" si="2"/>
         <v>8.1981696935445585E-3</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.4272629066375142</v>
       </c>
     </row>
@@ -3272,19 +3318,19 @@
         <v>50</v>
       </c>
       <c r="E59" s="3">
-        <f>$D59*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>3.968859765445595</v>
       </c>
       <c r="F59" s="3">
-        <f>$D59*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>46.031140234554407</v>
       </c>
       <c r="G59" s="2">
-        <f>_xlfn.CHISQ.TEST(B59:C59,E59:F59)</f>
+        <f t="shared" si="2"/>
         <v>8.4873572360951791E-3</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.031140234554405</v>
       </c>
     </row>
@@ -3302,19 +3348,19 @@
         <v>103</v>
       </c>
       <c r="E60" s="3">
-        <f>$D60*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>8.1758511168179258</v>
       </c>
       <c r="F60" s="3">
-        <f>$D60*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>94.824148883182076</v>
       </c>
       <c r="G60" s="2">
-        <f>_xlfn.CHISQ.TEST(B60:C60,E60:F60)</f>
+        <f t="shared" si="2"/>
         <v>8.9079099044824441E-3</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7.1758511168179258</v>
       </c>
     </row>
@@ -3332,19 +3378,19 @@
         <v>391</v>
       </c>
       <c r="E61" s="3">
-        <f>$D61*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>31.036483365784555</v>
       </c>
       <c r="F61" s="3">
-        <f>$D61*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>359.96351663421547</v>
       </c>
       <c r="G61" s="2">
-        <f>_xlfn.CHISQ.TEST(B61:C61,E61:F61)</f>
+        <f t="shared" si="2"/>
         <v>8.9943781249749791E-3</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>13.963516634215445</v>
       </c>
     </row>
@@ -3362,19 +3408,19 @@
         <v>43</v>
       </c>
       <c r="E62" s="3">
-        <f>$D62*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>3.413219398283212</v>
       </c>
       <c r="F62" s="3">
-        <f>$D62*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>39.586780601716789</v>
       </c>
       <c r="G62" s="2">
-        <f>_xlfn.CHISQ.TEST(B62:C62,E62:F62)</f>
+        <f t="shared" si="2"/>
         <v>9.6667435450661695E-3</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4.5867806017167876</v>
       </c>
     </row>
@@ -3392,19 +3438,19 @@
         <v>22</v>
       </c>
       <c r="E63" s="3">
-        <f>$D63*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>1.7462982967960619</v>
       </c>
       <c r="F63" s="3">
-        <f>$D63*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>20.253701703203937</v>
       </c>
       <c r="G63" s="2">
-        <f>_xlfn.CHISQ.TEST(B63:C63,E63:F63)</f>
+        <f t="shared" si="2"/>
         <v>1.0284202692612546E-2</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2537017032039381</v>
       </c>
     </row>
@@ -3422,19 +3468,19 @@
         <v>336</v>
       </c>
       <c r="E64" s="3">
-        <f>$D64*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>26.670737623794398</v>
       </c>
       <c r="F64" s="3">
-        <f>$D64*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>309.32926237620558</v>
       </c>
       <c r="G64" s="2">
-        <f>_xlfn.CHISQ.TEST(B64:C64,E64:F64)</f>
+        <f t="shared" si="2"/>
         <v>1.2840509559198804E-2</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12.329262376205602</v>
       </c>
     </row>
@@ -3452,19 +3498,19 @@
         <v>289</v>
       </c>
       <c r="E65" s="3">
-        <f>$D65*B$363/$D$363</f>
+        <f t="shared" si="0"/>
         <v>22.940009444275539</v>
       </c>
       <c r="F65" s="3">
-        <f>$D65*C$363/$D$363</f>
+        <f t="shared" si="1"/>
         <v>266.05999055572448</v>
       </c>
       <c r="G65" s="2">
-        <f>_xlfn.CHISQ.TEST(B65:C65,E65:F65)</f>
+        <f t="shared" si="2"/>
         <v>1.7286113057161993E-2</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-10.940009444275539</v>
       </c>
     </row>
@@ -3482,19 +3528,19 @@
         <v>1060</v>
       </c>
       <c r="E66" s="3">
-        <f>$D66*B$363/$D$363</f>
+        <f t="shared" ref="E66:E129" si="4">$D66*B$363/$D$363</f>
         <v>84.139827027446614</v>
       </c>
       <c r="F66" s="3">
-        <f>$D66*C$363/$D$363</f>
+        <f t="shared" ref="F66:F129" si="5">$D66*C$363/$D$363</f>
         <v>975.86017297255341</v>
       </c>
       <c r="G66" s="2">
-        <f>_xlfn.CHISQ.TEST(B66:C66,E66:F66)</f>
+        <f t="shared" ref="G66:G129" si="6">_xlfn.CHISQ.TEST(B66:C66,E66:F66)</f>
         <v>1.7780764509593462E-2</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>20.860172972553386</v>
       </c>
     </row>
@@ -3512,19 +3558,19 @@
         <v>652</v>
       </c>
       <c r="E67" s="3">
-        <f>$D67*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>51.753931341410564</v>
       </c>
       <c r="F67" s="3">
-        <f>$D67*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>600.24606865858948</v>
       </c>
       <c r="G67" s="2">
-        <f>_xlfn.CHISQ.TEST(B67:C67,E67:F67)</f>
+        <f t="shared" si="6"/>
         <v>1.859176816224032E-2</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" ref="H67:H130" si="1">B67-E67</f>
+        <f t="shared" ref="H67:H130" si="7">B67-E67</f>
         <v>16.246068658589436</v>
       </c>
     </row>
@@ -3542,19 +3588,19 @@
         <v>491</v>
       </c>
       <c r="E68" s="3">
-        <f>$D68*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>38.974202896675742</v>
       </c>
       <c r="F68" s="3">
-        <f>$D68*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>452.02579710332424</v>
       </c>
       <c r="G68" s="2">
-        <f>_xlfn.CHISQ.TEST(B68:C68,E68:F68)</f>
+        <f t="shared" si="6"/>
         <v>1.9205342756949788E-2</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>14.025797103324258</v>
       </c>
     </row>
@@ -3572,19 +3618,19 @@
         <v>72</v>
       </c>
       <c r="E69" s="3">
-        <f>$D69*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>5.7151580622416569</v>
       </c>
       <c r="F69" s="3">
-        <f>$D69*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>66.284841937758344</v>
       </c>
       <c r="G69" s="2">
-        <f>_xlfn.CHISQ.TEST(B69:C69,E69:F69)</f>
+        <f t="shared" si="6"/>
         <v>2.1224269449614978E-2</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.2848419377583431</v>
       </c>
     </row>
@@ -3602,19 +3648,19 @@
         <v>6</v>
       </c>
       <c r="E70" s="3">
-        <f>$D70*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>0.47626317185347145</v>
       </c>
       <c r="F70" s="3">
-        <f>$D70*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>5.5237368281465287</v>
       </c>
       <c r="G70" s="2">
-        <f>_xlfn.CHISQ.TEST(B70:C70,E70:F70)</f>
+        <f t="shared" si="6"/>
         <v>2.1382953024670096E-2</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5237368281465287</v>
       </c>
     </row>
@@ -3632,19 +3678,19 @@
         <v>6</v>
       </c>
       <c r="E71" s="3">
-        <f>$D71*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>0.47626317185347145</v>
       </c>
       <c r="F71" s="3">
-        <f>$D71*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>5.5237368281465287</v>
       </c>
       <c r="G71" s="2">
-        <f>_xlfn.CHISQ.TEST(B71:C71,E71:F71)</f>
+        <f t="shared" si="6"/>
         <v>2.1382953024670096E-2</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.5237368281465287</v>
       </c>
     </row>
@@ -3662,19 +3708,19 @@
         <v>32</v>
       </c>
       <c r="E72" s="3">
-        <f>$D72*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>2.540070249885181</v>
       </c>
       <c r="F72" s="3">
-        <f>$D72*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>29.459929750114821</v>
       </c>
       <c r="G72" s="2">
-        <f>_xlfn.CHISQ.TEST(B72:C72,E72:F72)</f>
+        <f t="shared" si="6"/>
         <v>2.3661717885025618E-2</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.459929750114819</v>
       </c>
     </row>
@@ -3692,19 +3738,19 @@
         <v>103</v>
       </c>
       <c r="E73" s="3">
-        <f>$D73*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>8.1758511168179258</v>
       </c>
       <c r="F73" s="3">
-        <f>$D73*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>94.824148883182076</v>
       </c>
       <c r="G73" s="2">
-        <f>_xlfn.CHISQ.TEST(B73:C73,E73:F73)</f>
+        <f t="shared" si="6"/>
         <v>2.4380951150659254E-2</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-6.1758511168179258</v>
       </c>
     </row>
@@ -3722,19 +3768,19 @@
         <v>40</v>
       </c>
       <c r="E74" s="3">
-        <f>$D74*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>3.1750878123564763</v>
       </c>
       <c r="F74" s="3">
-        <f>$D74*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>36.824912187643527</v>
       </c>
       <c r="G74" s="2">
-        <f>_xlfn.CHISQ.TEST(B74:C74,E74:F74)</f>
+        <f t="shared" si="6"/>
         <v>2.5273970127898154E-2</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.8249121876435237</v>
       </c>
     </row>
@@ -3752,19 +3798,19 @@
         <v>294</v>
       </c>
       <c r="E75" s="3">
-        <f>$D75*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>23.336895420820099</v>
       </c>
       <c r="F75" s="3">
-        <f>$D75*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>270.6631045791799</v>
       </c>
       <c r="G75" s="2">
-        <f>_xlfn.CHISQ.TEST(B75:C75,E75:F75)</f>
+        <f t="shared" si="6"/>
         <v>2.5739652688438874E-2</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-10.336895420820099</v>
       </c>
     </row>
@@ -3782,19 +3828,19 @@
         <v>227</v>
       </c>
       <c r="E76" s="3">
-        <f>$D76*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>18.018623335123003</v>
       </c>
       <c r="F76" s="3">
-        <f>$D76*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>208.98137666487699</v>
       </c>
       <c r="G76" s="2">
-        <f>_xlfn.CHISQ.TEST(B76:C76,E76:F76)</f>
+        <f t="shared" si="6"/>
         <v>2.6807405163146045E-2</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.018623335123003</v>
       </c>
     </row>
@@ -3812,19 +3858,19 @@
         <v>356</v>
       </c>
       <c r="E77" s="3">
-        <f>$D77*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>28.258281529972638</v>
       </c>
       <c r="F77" s="3">
-        <f>$D77*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>327.74171847002737</v>
       </c>
       <c r="G77" s="2">
-        <f>_xlfn.CHISQ.TEST(B77:C77,E77:F77)</f>
+        <f t="shared" si="6"/>
         <v>2.7294170698570999E-2</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-11.258281529972638</v>
       </c>
     </row>
@@ -3842,19 +3888,19 @@
         <v>74</v>
       </c>
       <c r="E78" s="3">
-        <f>$D78*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>5.8739124528594804</v>
       </c>
       <c r="F78" s="3">
-        <f>$D78*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>68.126087547140514</v>
       </c>
       <c r="G78" s="2">
-        <f>_xlfn.CHISQ.TEST(B78:C78,E78:F78)</f>
+        <f t="shared" si="6"/>
         <v>2.749942932985424E-2</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.1260875471405196</v>
       </c>
     </row>
@@ -3872,19 +3918,19 @@
         <v>464</v>
       </c>
       <c r="E79" s="3">
-        <f>$D79*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>36.831018623335126</v>
       </c>
       <c r="F79" s="3">
-        <f>$D79*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>427.16898137666487</v>
       </c>
       <c r="G79" s="2">
-        <f>_xlfn.CHISQ.TEST(B79:C79,E79:F79)</f>
+        <f t="shared" si="6"/>
         <v>2.7559401549872742E-2</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-12.831018623335126</v>
       </c>
     </row>
@@ -3902,19 +3948,19 @@
         <v>2</v>
       </c>
       <c r="E80" s="3">
-        <f>$D80*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>0.15875439061782382</v>
       </c>
       <c r="F80" s="3">
-        <f>$D80*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>1.8412456093821763</v>
       </c>
       <c r="G80" s="2">
-        <f>_xlfn.CHISQ.TEST(B80:C80,E80:F80)</f>
+        <f t="shared" si="6"/>
         <v>2.7772265590673788E-2</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.84124560938217618</v>
       </c>
     </row>
@@ -3932,19 +3978,19 @@
         <v>2</v>
       </c>
       <c r="E81" s="3">
-        <f>$D81*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>0.15875439061782382</v>
       </c>
       <c r="F81" s="3">
-        <f>$D81*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>1.8412456093821763</v>
       </c>
       <c r="G81" s="2">
-        <f>_xlfn.CHISQ.TEST(B81:C81,E81:F81)</f>
+        <f t="shared" si="6"/>
         <v>2.7772265590673788E-2</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.84124560938217618</v>
       </c>
     </row>
@@ -3962,19 +4008,19 @@
         <v>2</v>
       </c>
       <c r="E82" s="3">
-        <f>$D82*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>0.15875439061782382</v>
       </c>
       <c r="F82" s="3">
-        <f>$D82*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>1.8412456093821763</v>
       </c>
       <c r="G82" s="2">
-        <f>_xlfn.CHISQ.TEST(B82:C82,E82:F82)</f>
+        <f t="shared" si="6"/>
         <v>2.7772265590673788E-2</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.84124560938217618</v>
       </c>
     </row>
@@ -3992,19 +4038,19 @@
         <v>2</v>
       </c>
       <c r="E83" s="3">
-        <f>$D83*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>0.15875439061782382</v>
       </c>
       <c r="F83" s="3">
-        <f>$D83*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>1.8412456093821763</v>
       </c>
       <c r="G83" s="2">
-        <f>_xlfn.CHISQ.TEST(B83:C83,E83:F83)</f>
+        <f t="shared" si="6"/>
         <v>2.7772265590673788E-2</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.84124560938217618</v>
       </c>
     </row>
@@ -4022,19 +4068,19 @@
         <v>2</v>
       </c>
       <c r="E84" s="3">
-        <f>$D84*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>0.15875439061782382</v>
       </c>
       <c r="F84" s="3">
-        <f>$D84*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>1.8412456093821763</v>
       </c>
       <c r="G84" s="2">
-        <f>_xlfn.CHISQ.TEST(B84:C84,E84:F84)</f>
+        <f t="shared" si="6"/>
         <v>2.7772265590673788E-2</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.84124560938217618</v>
       </c>
     </row>
@@ -4052,19 +4098,19 @@
         <v>3151</v>
       </c>
       <c r="E85" s="3">
-        <f>$D85*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>250.11754241838142</v>
       </c>
       <c r="F85" s="3">
-        <f>$D85*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>2900.8824575816184</v>
       </c>
       <c r="G85" s="2">
-        <f>_xlfn.CHISQ.TEST(B85:C85,E85:F85)</f>
+        <f t="shared" si="6"/>
         <v>2.9076019773465529E-2</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-33.117542418381419</v>
       </c>
     </row>
@@ -4082,19 +4128,19 @@
         <v>137</v>
       </c>
       <c r="E86" s="3">
-        <f>$D86*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>10.874675757320931</v>
       </c>
       <c r="F86" s="3">
-        <f>$D86*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>126.12532424267907</v>
       </c>
       <c r="G86" s="2">
-        <f>_xlfn.CHISQ.TEST(B86:C86,E86:F86)</f>
+        <f t="shared" si="6"/>
         <v>2.9801610502304655E-2</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-6.8746757573209312</v>
       </c>
     </row>
@@ -4112,19 +4158,19 @@
         <v>312</v>
       </c>
       <c r="E87" s="3">
-        <f>$D87*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>24.765684936380513</v>
       </c>
       <c r="F87" s="3">
-        <f>$D87*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>287.23431506361948</v>
       </c>
       <c r="G87" s="2">
-        <f>_xlfn.CHISQ.TEST(B87:C87,E87:F87)</f>
+        <f t="shared" si="6"/>
         <v>3.2085142868976659E-2</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>10.234315063619487</v>
       </c>
     </row>
@@ -4142,19 +4188,19 @@
         <v>26</v>
       </c>
       <c r="E88" s="3">
-        <f>$D88*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>2.0638070780317093</v>
       </c>
       <c r="F88" s="3">
-        <f>$D88*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>23.936192921968292</v>
       </c>
       <c r="G88" s="2">
-        <f>_xlfn.CHISQ.TEST(B88:C88,E88:F88)</f>
+        <f t="shared" si="6"/>
         <v>3.3159641213514064E-2</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.9361929219682907</v>
       </c>
     </row>
@@ -4172,19 +4218,19 @@
         <v>26</v>
       </c>
       <c r="E89" s="3">
-        <f>$D89*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>2.0638070780317093</v>
       </c>
       <c r="F89" s="3">
-        <f>$D89*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>23.936192921968292</v>
       </c>
       <c r="G89" s="2">
-        <f>_xlfn.CHISQ.TEST(B89:C89,E89:F89)</f>
+        <f t="shared" si="6"/>
         <v>3.3159641213514064E-2</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.9361929219682907</v>
       </c>
     </row>
@@ -4202,19 +4248,19 @@
         <v>284</v>
       </c>
       <c r="E90" s="3">
-        <f>$D90*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>22.543123467730979</v>
       </c>
       <c r="F90" s="3">
-        <f>$D90*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>261.45687653226901</v>
       </c>
       <c r="G90" s="2">
-        <f>_xlfn.CHISQ.TEST(B90:C90,E90:F90)</f>
+        <f t="shared" si="6"/>
         <v>3.6188745798661118E-2</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.5431234677309789</v>
       </c>
     </row>
@@ -4232,19 +4278,19 @@
         <v>94</v>
       </c>
       <c r="E91" s="3">
-        <f>$D91*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>7.4614563590377188</v>
       </c>
       <c r="F91" s="3">
-        <f>$D91*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>86.538543640962274</v>
       </c>
       <c r="G91" s="2">
-        <f>_xlfn.CHISQ.TEST(B91:C91,E91:F91)</f>
+        <f t="shared" si="6"/>
         <v>3.717846460477725E-2</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-5.4614563590377188</v>
       </c>
     </row>
@@ -4262,19 +4308,19 @@
         <v>651</v>
       </c>
       <c r="E92" s="3">
-        <f>$D92*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>51.674554146101649</v>
       </c>
       <c r="F92" s="3">
-        <f>$D92*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>599.32544585389837</v>
       </c>
       <c r="G92" s="2">
-        <f>_xlfn.CHISQ.TEST(B92:C92,E92:F92)</f>
+        <f t="shared" si="6"/>
         <v>3.7804906213798409E-2</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>14.325445853898351</v>
       </c>
     </row>
@@ -4292,19 +4338,19 @@
         <v>77</v>
       </c>
       <c r="E93" s="3">
-        <f>$D93*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>6.1120440387862169</v>
       </c>
       <c r="F93" s="3">
-        <f>$D93*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>70.887955961213777</v>
       </c>
       <c r="G93" s="2">
-        <f>_xlfn.CHISQ.TEST(B93:C93,E93:F93)</f>
+        <f t="shared" si="6"/>
         <v>3.9341449059823917E-2</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.8879559612137831</v>
       </c>
     </row>
@@ -4322,19 +4368,19 @@
         <v>297</v>
       </c>
       <c r="E94" s="3">
-        <f>$D94*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>23.575027006746836</v>
       </c>
       <c r="F94" s="3">
-        <f>$D94*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>273.42497299325316</v>
       </c>
       <c r="G94" s="2">
-        <f>_xlfn.CHISQ.TEST(B94:C94,E94:F94)</f>
+        <f t="shared" si="6"/>
         <v>3.9851032476316335E-2</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-9.5750270067468364</v>
       </c>
     </row>
@@ -4352,19 +4398,19 @@
         <v>21037</v>
       </c>
       <c r="E95" s="3">
-        <f>$D95*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>1669.8580577135797</v>
       </c>
       <c r="F95" s="3">
-        <f>$D95*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>19367.14194228642</v>
       </c>
       <c r="G95" s="2">
-        <f>_xlfn.CHISQ.TEST(B95:C95,E95:F95)</f>
+        <f t="shared" si="6"/>
         <v>4.1674924540867124E-2</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-79.858057713579683</v>
       </c>
     </row>
@@ -4382,19 +4428,19 @@
         <v>3187</v>
       </c>
       <c r="E96" s="3">
-        <f>$D96*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>252.97512144950224</v>
       </c>
       <c r="F96" s="3">
-        <f>$D96*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>2934.0248785504978</v>
       </c>
       <c r="G96" s="2">
-        <f>_xlfn.CHISQ.TEST(B96:C96,E96:F96)</f>
+        <f t="shared" si="6"/>
         <v>4.2055861733153815E-2</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>31.02487855049776</v>
       </c>
     </row>
@@ -4412,19 +4458,19 @@
         <v>7</v>
       </c>
       <c r="E97" s="3">
-        <f>$D97*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>0.5556403671623833</v>
       </c>
       <c r="F97" s="3">
-        <f>$D97*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>6.4443596328376165</v>
       </c>
       <c r="G97" s="2">
-        <f>_xlfn.CHISQ.TEST(B97:C97,E97:F97)</f>
+        <f t="shared" si="6"/>
         <v>4.3438306820218257E-2</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.4443596328376167</v>
       </c>
     </row>
@@ -4442,19 +4488,19 @@
         <v>308</v>
       </c>
       <c r="E98" s="3">
-        <f>$D98*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>24.448176155144868</v>
       </c>
       <c r="F98" s="3">
-        <f>$D98*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>283.55182384485511</v>
       </c>
       <c r="G98" s="2">
-        <f>_xlfn.CHISQ.TEST(B98:C98,E98:F98)</f>
+        <f t="shared" si="6"/>
         <v>4.4076394649015221E-2</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9.5518238448551323</v>
       </c>
     </row>
@@ -4472,19 +4518,19 @@
         <v>20</v>
       </c>
       <c r="E99" s="3">
-        <f>$D99*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>1.5875439061782382</v>
       </c>
       <c r="F99" s="3">
-        <f>$D99*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>18.412456093821763</v>
       </c>
       <c r="G99" s="2">
-        <f>_xlfn.CHISQ.TEST(B99:C99,E99:F99)</f>
+        <f t="shared" si="6"/>
         <v>4.598639717433791E-2</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.4124560938217616</v>
       </c>
     </row>
@@ -4502,19 +4548,19 @@
         <v>144</v>
       </c>
       <c r="E100" s="3">
-        <f>$D100*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>11.430316124483314</v>
       </c>
       <c r="F100" s="3">
-        <f>$D100*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>132.56968387551669</v>
       </c>
       <c r="G100" s="2">
-        <f>_xlfn.CHISQ.TEST(B100:C100,E100:F100)</f>
+        <f t="shared" si="6"/>
         <v>4.7449269477404521E-2</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-6.4303161244833138</v>
       </c>
     </row>
@@ -4532,19 +4578,19 @@
         <v>36</v>
       </c>
       <c r="E101" s="3">
-        <f>$D101*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>2.8575790311208284</v>
       </c>
       <c r="F101" s="3">
-        <f>$D101*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>33.142420968879172</v>
       </c>
       <c r="G101" s="2">
-        <f>_xlfn.CHISQ.TEST(B101:C101,E101:F101)</f>
+        <f t="shared" si="6"/>
         <v>5.2693699070272652E-2</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.1424209688791716</v>
       </c>
     </row>
@@ -4562,19 +4608,19 @@
         <v>36</v>
       </c>
       <c r="E102" s="3">
-        <f>$D102*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>2.8575790311208284</v>
       </c>
       <c r="F102" s="3">
-        <f>$D102*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>33.142420968879172</v>
       </c>
       <c r="G102" s="2">
-        <f>_xlfn.CHISQ.TEST(B102:C102,E102:F102)</f>
+        <f t="shared" si="6"/>
         <v>5.2693699070272652E-2</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.1424209688791716</v>
       </c>
     </row>
@@ -4592,19 +4638,19 @@
         <v>1544</v>
       </c>
       <c r="E103" s="3">
-        <f>$D103*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>122.55838955695998</v>
       </c>
       <c r="F103" s="3">
-        <f>$D103*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>1421.44161044304</v>
       </c>
       <c r="G103" s="2">
-        <f>_xlfn.CHISQ.TEST(B103:C103,E103:F103)</f>
+        <f t="shared" si="6"/>
         <v>5.4300372967127093E-2</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>20.44161044304002</v>
       </c>
     </row>
@@ -4622,19 +4668,19 @@
         <v>787</v>
       </c>
       <c r="E104" s="3">
-        <f>$D104*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>62.46985270811367</v>
       </c>
       <c r="F104" s="3">
-        <f>$D104*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>724.53014729188635</v>
       </c>
       <c r="G104" s="2">
-        <f>_xlfn.CHISQ.TEST(B104:C104,E104:F104)</f>
+        <f t="shared" si="6"/>
         <v>5.5365990392811412E-2</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>14.53014729188633</v>
       </c>
     </row>
@@ -4652,19 +4698,19 @@
         <v>104</v>
       </c>
       <c r="E105" s="3">
-        <f>$D105*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>8.2552283121268371</v>
       </c>
       <c r="F105" s="3">
-        <f>$D105*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>95.744771687873168</v>
       </c>
       <c r="G105" s="2">
-        <f>_xlfn.CHISQ.TEST(B105:C105,E105:F105)</f>
+        <f t="shared" si="6"/>
         <v>5.6614178839558875E-2</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-5.2552283121268371</v>
       </c>
     </row>
@@ -4682,19 +4728,19 @@
         <v>139</v>
       </c>
       <c r="E106" s="3">
-        <f>$D106*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>11.033430147938754</v>
       </c>
       <c r="F106" s="3">
-        <f>$D106*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>127.96656985206124</v>
       </c>
       <c r="G106" s="2">
-        <f>_xlfn.CHISQ.TEST(B106:C106,E106:F106)</f>
+        <f t="shared" si="6"/>
         <v>5.8347705224379445E-2</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-6.0334301479387538</v>
       </c>
     </row>
@@ -4712,19 +4758,19 @@
         <v>199</v>
       </c>
       <c r="E107" s="3">
-        <f>$D107*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>15.796061866473469</v>
       </c>
       <c r="F107" s="3">
-        <f>$D107*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>183.20393813352652</v>
       </c>
       <c r="G107" s="2">
-        <f>_xlfn.CHISQ.TEST(B107:C107,E107:F107)</f>
+        <f t="shared" si="6"/>
         <v>5.887857662043363E-2</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.2039381335265311</v>
       </c>
     </row>
@@ -4742,19 +4788,19 @@
         <v>84</v>
       </c>
       <c r="E108" s="3">
-        <f>$D108*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>6.6676844059485996</v>
       </c>
       <c r="F108" s="3">
-        <f>$D108*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>77.332315594051394</v>
       </c>
       <c r="G108" s="2">
-        <f>_xlfn.CHISQ.TEST(B108:C108,E108:F108)</f>
+        <f t="shared" si="6"/>
         <v>5.9569550163896944E-2</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-4.6676844059485996</v>
       </c>
     </row>
@@ -4772,19 +4818,19 @@
         <v>21</v>
       </c>
       <c r="E109" s="3">
-        <f>$D109*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>1.6669211014871499</v>
       </c>
       <c r="F109" s="3">
-        <f>$D109*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>19.333078898512849</v>
       </c>
       <c r="G109" s="2">
-        <f>_xlfn.CHISQ.TEST(B109:C109,E109:F109)</f>
+        <f t="shared" si="6"/>
         <v>5.9652949892945728E-2</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.3330788985128503</v>
       </c>
     </row>
@@ -4802,19 +4848,19 @@
         <v>100</v>
       </c>
       <c r="E110" s="3">
-        <f>$D110*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>7.9377195308911901</v>
       </c>
       <c r="F110" s="3">
-        <f>$D110*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>92.062280469108813</v>
       </c>
       <c r="G110" s="2">
-        <f>_xlfn.CHISQ.TEST(B110:C110,E110:F110)</f>
+        <f t="shared" si="6"/>
         <v>6.1116226183891231E-2</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.0622804691088099</v>
       </c>
     </row>
@@ -4832,19 +4878,19 @@
         <v>102</v>
       </c>
       <c r="E111" s="3">
-        <f>$D111*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>8.0964739215090145</v>
       </c>
       <c r="F111" s="3">
-        <f>$D111*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>93.903526078490984</v>
       </c>
       <c r="G111" s="2">
-        <f>_xlfn.CHISQ.TEST(B111:C111,E111:F111)</f>
+        <f t="shared" si="6"/>
         <v>6.1939617825132763E-2</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-5.0964739215090145</v>
       </c>
     </row>
@@ -4862,19 +4908,19 @@
         <v>468</v>
       </c>
       <c r="E112" s="3">
-        <f>$D112*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>37.148527404570771</v>
       </c>
       <c r="F112" s="3">
-        <f>$D112*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>430.85147259542924</v>
       </c>
       <c r="G112" s="2">
-        <f>_xlfn.CHISQ.TEST(B112:C112,E112:F112)</f>
+        <f t="shared" si="6"/>
         <v>6.351507426372667E-2</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>10.851472595429229</v>
       </c>
     </row>
@@ -4892,19 +4938,19 @@
         <v>101</v>
       </c>
       <c r="E113" s="3">
-        <f>$D113*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>8.0170967262001014</v>
       </c>
       <c r="F113" s="3">
-        <f>$D113*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>92.982903273799892</v>
       </c>
       <c r="G113" s="2">
-        <f>_xlfn.CHISQ.TEST(B113:C113,E113:F113)</f>
+        <f t="shared" si="6"/>
         <v>6.4786501174391845E-2</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-5.0170967262001014</v>
       </c>
     </row>
@@ -4922,19 +4968,19 @@
         <v>851</v>
       </c>
       <c r="E114" s="3">
-        <f>$D114*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>67.549993207884029</v>
       </c>
       <c r="F114" s="3">
-        <f>$D114*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>783.45000679211591</v>
       </c>
       <c r="G114" s="2">
-        <f>_xlfn.CHISQ.TEST(B114:C114,E114:F114)</f>
+        <f t="shared" si="6"/>
         <v>6.6895460614467342E-2</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>14.450006792115971</v>
       </c>
     </row>
@@ -4952,19 +4998,19 @@
         <v>81</v>
       </c>
       <c r="E115" s="3">
-        <f>$D115*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>6.4295528200218639</v>
       </c>
       <c r="F115" s="3">
-        <f>$D115*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>74.570447179978132</v>
       </c>
       <c r="G115" s="2">
-        <f>_xlfn.CHISQ.TEST(B115:C115,E115:F115)</f>
+        <f t="shared" si="6"/>
         <v>6.8658692954380554E-2</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-4.4295528200218639</v>
       </c>
     </row>
@@ -4982,19 +5028,19 @@
         <v>121</v>
       </c>
       <c r="E116" s="3">
-        <f>$D116*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>9.6046406323783398</v>
       </c>
       <c r="F116" s="3">
-        <f>$D116*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>111.39535936762167</v>
       </c>
       <c r="G116" s="2">
-        <f>_xlfn.CHISQ.TEST(B116:C116,E116:F116)</f>
+        <f t="shared" si="6"/>
         <v>6.9612363747716996E-2</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>5.3953593676216602</v>
       </c>
     </row>
@@ -5012,19 +5058,19 @@
         <v>59</v>
       </c>
       <c r="E117" s="3">
-        <f>$D117*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>4.683254523225802</v>
       </c>
       <c r="F117" s="3">
-        <f>$D117*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>54.316745476774194</v>
       </c>
       <c r="G117" s="2">
-        <f>_xlfn.CHISQ.TEST(B117:C117,E117:F117)</f>
+        <f t="shared" si="6"/>
         <v>7.608790180131085E-2</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-3.683254523225802</v>
       </c>
     </row>
@@ -5042,19 +5088,19 @@
         <v>183</v>
       </c>
       <c r="E118" s="3">
-        <f>$D118*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>14.526026741530877</v>
       </c>
       <c r="F118" s="3">
-        <f>$D118*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>168.47397325846913</v>
       </c>
       <c r="G118" s="2">
-        <f>_xlfn.CHISQ.TEST(B118:C118,E118:F118)</f>
+        <f t="shared" si="6"/>
         <v>7.6670562471268133E-2</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.4739732584691225</v>
       </c>
     </row>
@@ -5072,19 +5118,19 @@
         <v>30</v>
       </c>
       <c r="E119" s="3">
-        <f>$D119*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>2.3813158592673571</v>
       </c>
       <c r="F119" s="3">
-        <f>$D119*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>27.618684140732643</v>
       </c>
       <c r="G119" s="2">
-        <f>_xlfn.CHISQ.TEST(B119:C119,E119:F119)</f>
+        <f t="shared" si="6"/>
         <v>7.6957841439380711E-2</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2.6186841407326429</v>
       </c>
     </row>
@@ -5102,19 +5148,19 @@
         <v>97</v>
       </c>
       <c r="E120" s="3">
-        <f>$D120*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>7.6995879449644544</v>
       </c>
       <c r="F120" s="3">
-        <f>$D120*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>89.300412055035551</v>
       </c>
       <c r="G120" s="2">
-        <f>_xlfn.CHISQ.TEST(B120:C120,E120:F120)</f>
+        <f t="shared" si="6"/>
         <v>7.7536129631518902E-2</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-4.6995879449644544</v>
       </c>
     </row>
@@ -5132,19 +5178,19 @@
         <v>246</v>
       </c>
       <c r="E121" s="3">
-        <f>$D121*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>19.526790045992328</v>
       </c>
       <c r="F121" s="3">
-        <f>$D121*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>226.47320995400767</v>
       </c>
       <c r="G121" s="2">
-        <f>_xlfn.CHISQ.TEST(B121:C121,E121:F121)</f>
+        <f t="shared" si="6"/>
         <v>7.7969946341727561E-2</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>7.4732099540076717</v>
       </c>
     </row>
@@ -5162,19 +5208,19 @@
         <v>184</v>
       </c>
       <c r="E122" s="3">
-        <f>$D122*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>14.605403936839791</v>
       </c>
       <c r="F122" s="3">
-        <f>$D122*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>169.39459606316021</v>
       </c>
       <c r="G122" s="2">
-        <f>_xlfn.CHISQ.TEST(B122:C122,E122:F122)</f>
+        <f t="shared" si="6"/>
         <v>8.1180809231524265E-2</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>6.3945960631602095</v>
       </c>
     </row>
@@ -5192,19 +5238,19 @@
         <v>1181</v>
       </c>
       <c r="E123" s="3">
-        <f>$D123*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>93.744467659824963</v>
       </c>
       <c r="F123" s="3">
-        <f>$D123*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>1087.255532340175</v>
       </c>
       <c r="G123" s="2">
-        <f>_xlfn.CHISQ.TEST(B123:C123,E123:F123)</f>
+        <f t="shared" si="6"/>
         <v>9.0116449712541818E-2</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-15.744467659824963</v>
       </c>
     </row>
@@ -5222,19 +5268,19 @@
         <v>932</v>
       </c>
       <c r="E124" s="3">
-        <f>$D124*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>73.979546027905897</v>
       </c>
       <c r="F124" s="3">
-        <f>$D124*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>858.02045397209406</v>
       </c>
       <c r="G124" s="2">
-        <f>_xlfn.CHISQ.TEST(B124:C124,E124:F124)</f>
+        <f t="shared" si="6"/>
         <v>9.0277908307952834E-2</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-13.979546027905897</v>
       </c>
     </row>
@@ -5252,19 +5298,19 @@
         <v>105</v>
       </c>
       <c r="E125" s="3">
-        <f>$D125*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>8.3346055074357501</v>
       </c>
       <c r="F125" s="3">
-        <f>$D125*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>96.665394492564246</v>
       </c>
       <c r="G125" s="2">
-        <f>_xlfn.CHISQ.TEST(B125:C125,E125:F125)</f>
+        <f t="shared" si="6"/>
         <v>9.2134541857742974E-2</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.6653944925642499</v>
       </c>
     </row>
@@ -5282,19 +5328,19 @@
         <v>96</v>
       </c>
       <c r="E126" s="3">
-        <f>$D126*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>7.6202107496555431</v>
       </c>
       <c r="F126" s="3">
-        <f>$D126*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>88.379789250344459</v>
       </c>
       <c r="G126" s="2">
-        <f>_xlfn.CHISQ.TEST(B126:C126,E126:F126)</f>
+        <f t="shared" si="6"/>
         <v>9.8210055898453774E-2</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>4.3797892503444569</v>
       </c>
     </row>
@@ -5312,19 +5358,19 @@
         <v>3926</v>
       </c>
       <c r="E127" s="3">
-        <f>$D127*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>311.63486878278815</v>
       </c>
       <c r="F127" s="3">
-        <f>$D127*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>3614.3651312172119</v>
       </c>
       <c r="G127" s="2">
-        <f>_xlfn.CHISQ.TEST(B127:C127,E127:F127)</f>
+        <f t="shared" si="6"/>
         <v>0.106180981883232</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>27.365131217211854</v>
       </c>
     </row>
@@ -5342,19 +5388,19 @@
         <v>50</v>
       </c>
       <c r="E128" s="3">
-        <f>$D128*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>3.968859765445595</v>
       </c>
       <c r="F128" s="3">
-        <f>$D128*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>46.031140234554407</v>
       </c>
       <c r="G128" s="2">
-        <f>_xlfn.CHISQ.TEST(B128:C128,E128:F128)</f>
+        <f t="shared" si="6"/>
         <v>0.11279804720788698</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.031140234554405</v>
       </c>
     </row>
@@ -5372,19 +5418,19 @@
         <v>9</v>
       </c>
       <c r="E129" s="3">
-        <f>$D129*B$363/$D$363</f>
+        <f t="shared" si="4"/>
         <v>0.71439475778020711</v>
       </c>
       <c r="F129" s="3">
-        <f>$D129*C$363/$D$363</f>
+        <f t="shared" si="5"/>
         <v>8.285605242219793</v>
       </c>
       <c r="G129" s="2">
-        <f>_xlfn.CHISQ.TEST(B129:C129,E129:F129)</f>
+        <f t="shared" si="6"/>
         <v>0.11290964466796929</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.285605242219793</v>
       </c>
     </row>
@@ -5402,19 +5448,19 @@
         <v>9</v>
       </c>
       <c r="E130" s="3">
-        <f>$D130*B$363/$D$363</f>
+        <f t="shared" ref="E130:E193" si="8">$D130*B$363/$D$363</f>
         <v>0.71439475778020711</v>
       </c>
       <c r="F130" s="3">
-        <f>$D130*C$363/$D$363</f>
+        <f t="shared" ref="F130:F193" si="9">$D130*C$363/$D$363</f>
         <v>8.285605242219793</v>
       </c>
       <c r="G130" s="2">
-        <f>_xlfn.CHISQ.TEST(B130:C130,E130:F130)</f>
+        <f t="shared" ref="G130:G193" si="10">_xlfn.CHISQ.TEST(B130:C130,E130:F130)</f>
         <v>0.11290964466796929</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.285605242219793</v>
       </c>
     </row>
@@ -5432,19 +5478,19 @@
         <v>9</v>
       </c>
       <c r="E131" s="3">
-        <f>$D131*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>0.71439475778020711</v>
       </c>
       <c r="F131" s="3">
-        <f>$D131*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>8.285605242219793</v>
       </c>
       <c r="G131" s="2">
-        <f>_xlfn.CHISQ.TEST(B131:C131,E131:F131)</f>
+        <f t="shared" si="10"/>
         <v>0.11290964466796929</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" ref="H131:H194" si="2">B131-E131</f>
+        <f t="shared" ref="H131:H194" si="11">B131-E131</f>
         <v>1.285605242219793</v>
       </c>
     </row>
@@ -5462,19 +5508,19 @@
         <v>60</v>
       </c>
       <c r="E132" s="3">
-        <f>$D132*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>4.7626317185347142</v>
       </c>
       <c r="F132" s="3">
-        <f>$D132*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>55.237368281465287</v>
       </c>
       <c r="G132" s="2">
-        <f>_xlfn.CHISQ.TEST(B132:C132,E132:F132)</f>
+        <f t="shared" si="10"/>
         <v>0.12208887535600782</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.2373682814652858</v>
       </c>
     </row>
@@ -5492,19 +5538,19 @@
         <v>99</v>
       </c>
       <c r="E133" s="3">
-        <f>$D133*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>7.8583423355822788</v>
       </c>
       <c r="F133" s="3">
-        <f>$D133*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>91.141657664417721</v>
       </c>
       <c r="G133" s="2">
-        <f>_xlfn.CHISQ.TEST(B133:C133,E133:F133)</f>
+        <f t="shared" si="10"/>
         <v>0.12360604553970249</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.1416576644177212</v>
       </c>
     </row>
@@ -5522,19 +5568,19 @@
         <v>61</v>
       </c>
       <c r="E134" s="3">
-        <f>$D134*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>4.8420089138436264</v>
       </c>
       <c r="F134" s="3">
-        <f>$D134*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>56.157991086156372</v>
       </c>
       <c r="G134" s="2">
-        <f>_xlfn.CHISQ.TEST(B134:C134,E134:F134)</f>
+        <f t="shared" si="10"/>
         <v>0.13472040299767835</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.1579910861563736</v>
       </c>
     </row>
@@ -5552,19 +5598,19 @@
         <v>447</v>
       </c>
       <c r="E135" s="3">
-        <f>$D135*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>35.481606303083623</v>
       </c>
       <c r="F135" s="3">
-        <f>$D135*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>411.51839369691641</v>
       </c>
       <c r="G135" s="2">
-        <f>_xlfn.CHISQ.TEST(B135:C135,E135:F135)</f>
+        <f t="shared" si="10"/>
         <v>0.13780737223777395</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-8.4816063030836233</v>
       </c>
     </row>
@@ -5582,19 +5628,19 @@
         <v>173</v>
       </c>
       <c r="E136" s="3">
-        <f>$D136*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>13.732254788441759</v>
       </c>
       <c r="F136" s="3">
-        <f>$D136*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>159.26774521155824</v>
       </c>
       <c r="G136" s="2">
-        <f>_xlfn.CHISQ.TEST(B136:C136,E136:F136)</f>
+        <f t="shared" si="10"/>
         <v>0.13846310752031896</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.2677452115582408</v>
       </c>
     </row>
@@ -5612,19 +5658,19 @@
         <v>17</v>
       </c>
       <c r="E137" s="3">
-        <f>$D137*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>1.3494123202515023</v>
       </c>
       <c r="F137" s="3">
-        <f>$D137*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>15.650587679748497</v>
       </c>
       <c r="G137" s="2">
-        <f>_xlfn.CHISQ.TEST(B137:C137,E137:F137)</f>
+        <f t="shared" si="10"/>
         <v>0.13863352636100229</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.6505876797484977</v>
       </c>
     </row>
@@ -5642,19 +5688,19 @@
         <v>257</v>
       </c>
       <c r="E138" s="3">
-        <f>$D138*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>20.39993919439036</v>
       </c>
       <c r="F138" s="3">
-        <f>$D138*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>236.60006080560964</v>
       </c>
       <c r="G138" s="2">
-        <f>_xlfn.CHISQ.TEST(B138:C138,E138:F138)</f>
+        <f t="shared" si="10"/>
         <v>0.13973029296756906</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-6.3999391943903596</v>
       </c>
     </row>
@@ -5672,19 +5718,19 @@
         <v>52</v>
       </c>
       <c r="E139" s="3">
-        <f>$D139*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>4.1276141560634185</v>
       </c>
       <c r="F139" s="3">
-        <f>$D139*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>47.872385843936584</v>
       </c>
       <c r="G139" s="2">
-        <f>_xlfn.CHISQ.TEST(B139:C139,E139:F139)</f>
+        <f t="shared" si="10"/>
         <v>0.14061422830064638</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.8723858439365815</v>
       </c>
     </row>
@@ -5702,19 +5748,19 @@
         <v>34</v>
       </c>
       <c r="E140" s="3">
-        <f>$D140*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>2.6988246405030045</v>
       </c>
       <c r="F140" s="3">
-        <f>$D140*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>31.301175359496995</v>
       </c>
       <c r="G140" s="2">
-        <f>_xlfn.CHISQ.TEST(B140:C140,E140:F140)</f>
+        <f t="shared" si="10"/>
         <v>0.14431902945476366</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.3011753594969955</v>
       </c>
     </row>
@@ -5732,19 +5778,19 @@
         <v>34</v>
       </c>
       <c r="E141" s="3">
-        <f>$D141*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>2.6988246405030045</v>
       </c>
       <c r="F141" s="3">
-        <f>$D141*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>31.301175359496995</v>
       </c>
       <c r="G141" s="2">
-        <f>_xlfn.CHISQ.TEST(B141:C141,E141:F141)</f>
+        <f t="shared" si="10"/>
         <v>0.14431902945476366</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.3011753594969955</v>
       </c>
     </row>
@@ -5762,19 +5808,19 @@
         <v>206</v>
       </c>
       <c r="E142" s="3">
-        <f>$D142*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>16.351702233635852</v>
       </c>
       <c r="F142" s="3">
-        <f>$D142*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>189.64829776636415</v>
       </c>
       <c r="G142" s="2">
-        <f>_xlfn.CHISQ.TEST(B142:C142,E142:F142)</f>
+        <f t="shared" si="10"/>
         <v>0.145453922854654</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.6482977663641485</v>
       </c>
     </row>
@@ -5792,19 +5838,19 @@
         <v>46</v>
       </c>
       <c r="E143" s="3">
-        <f>$D143*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>3.6513509842099476</v>
       </c>
       <c r="F143" s="3">
-        <f>$D143*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>42.348649015790052</v>
       </c>
       <c r="G143" s="2">
-        <f>_xlfn.CHISQ.TEST(B143:C143,E143:F143)</f>
+        <f t="shared" si="10"/>
         <v>0.14814799584557956</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.6513509842099476</v>
       </c>
     </row>
@@ -5822,19 +5868,19 @@
         <v>175</v>
       </c>
       <c r="E144" s="3">
-        <f>$D144*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>13.891009179059584</v>
       </c>
       <c r="F144" s="3">
-        <f>$D144*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>161.10899082094042</v>
       </c>
       <c r="G144" s="2">
-        <f>_xlfn.CHISQ.TEST(B144:C144,E144:F144)</f>
+        <f t="shared" si="10"/>
         <v>0.1531034238115711</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.1089908209404165</v>
       </c>
     </row>
@@ -5852,19 +5898,19 @@
         <v>45</v>
       </c>
       <c r="E145" s="3">
-        <f>$D145*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>3.5719737889010355</v>
       </c>
       <c r="F145" s="3">
-        <f>$D145*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>41.428026211098967</v>
       </c>
       <c r="G145" s="2">
-        <f>_xlfn.CHISQ.TEST(B145:C145,E145:F145)</f>
+        <f t="shared" si="10"/>
         <v>0.15609991871055326</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.5719737889010355</v>
       </c>
     </row>
@@ -5882,19 +5928,19 @@
         <v>624</v>
       </c>
       <c r="E146" s="3">
-        <f>$D146*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>49.531369872761026</v>
       </c>
       <c r="F146" s="3">
-        <f>$D146*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>574.46863012723895</v>
       </c>
       <c r="G146" s="2">
-        <f>_xlfn.CHISQ.TEST(B146:C146,E146:F146)</f>
+        <f t="shared" si="10"/>
         <v>0.15810354981670033</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-9.5313698727610259</v>
       </c>
     </row>
@@ -5912,19 +5958,19 @@
         <v>44</v>
       </c>
       <c r="E147" s="3">
-        <f>$D147*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>3.4925965935921237</v>
       </c>
       <c r="F147" s="3">
-        <f>$D147*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>40.507403406407875</v>
       </c>
       <c r="G147" s="2">
-        <f>_xlfn.CHISQ.TEST(B147:C147,E147:F147)</f>
+        <f t="shared" si="10"/>
         <v>0.16450737989801406</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.4925965935921237</v>
       </c>
     </row>
@@ -5942,19 +5988,19 @@
         <v>113</v>
       </c>
       <c r="E148" s="3">
-        <f>$D148*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>8.9696230699070458</v>
       </c>
       <c r="F148" s="3">
-        <f>$D148*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>104.03037693009296</v>
       </c>
       <c r="G148" s="2">
-        <f>_xlfn.CHISQ.TEST(B148:C148,E148:F148)</f>
+        <f t="shared" si="10"/>
         <v>0.16715418939903132</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-3.9696230699070458</v>
       </c>
     </row>
@@ -5972,19 +6018,19 @@
         <v>220</v>
       </c>
       <c r="E149" s="3">
-        <f>$D149*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>17.46298296796062</v>
       </c>
       <c r="F149" s="3">
-        <f>$D149*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>202.53701703203939</v>
       </c>
       <c r="G149" s="2">
-        <f>_xlfn.CHISQ.TEST(B149:C149,E149:F149)</f>
+        <f t="shared" si="10"/>
         <v>0.16729646087240974</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.5370170320393797</v>
       </c>
     </row>
@@ -6002,19 +6048,19 @@
         <v>62</v>
       </c>
       <c r="E150" s="3">
-        <f>$D150*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>4.9213861091525377</v>
       </c>
       <c r="F150" s="3">
-        <f>$D150*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>57.078613890847464</v>
       </c>
       <c r="G150" s="2">
-        <f>_xlfn.CHISQ.TEST(B150:C150,E150:F150)</f>
+        <f t="shared" si="10"/>
         <v>0.16991568150564976</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.9213861091525377</v>
       </c>
     </row>
@@ -6032,19 +6078,19 @@
         <v>18</v>
       </c>
       <c r="E151" s="3">
-        <f>$D151*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>1.4287895155604142</v>
       </c>
       <c r="F151" s="3">
-        <f>$D151*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>16.571210484439586</v>
       </c>
       <c r="G151" s="2">
-        <f>_xlfn.CHISQ.TEST(B151:C151,E151:F151)</f>
+        <f t="shared" si="10"/>
         <v>0.1706979211434147</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.5712104844395858</v>
       </c>
     </row>
@@ -6062,19 +6108,19 @@
         <v>18</v>
       </c>
       <c r="E152" s="3">
-        <f>$D152*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>1.4287895155604142</v>
       </c>
       <c r="F152" s="3">
-        <f>$D152*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>16.571210484439586</v>
       </c>
       <c r="G152" s="2">
-        <f>_xlfn.CHISQ.TEST(B152:C152,E152:F152)</f>
+        <f t="shared" si="10"/>
         <v>0.1706979211434147</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.5712104844395858</v>
       </c>
     </row>
@@ -6092,19 +6138,19 @@
         <v>144</v>
       </c>
       <c r="E153" s="3">
-        <f>$D153*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>11.430316124483314</v>
       </c>
       <c r="F153" s="3">
-        <f>$D153*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>132.56968387551669</v>
       </c>
       <c r="G153" s="2">
-        <f>_xlfn.CHISQ.TEST(B153:C153,E153:F153)</f>
+        <f t="shared" si="10"/>
         <v>0.17202384116860209</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-4.4303161244833138</v>
       </c>
     </row>
@@ -6122,19 +6168,19 @@
         <v>45</v>
       </c>
       <c r="E154" s="3">
-        <f>$D154*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>3.5719737889010355</v>
       </c>
       <c r="F154" s="3">
-        <f>$D154*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>41.428026211098967</v>
       </c>
       <c r="G154" s="2">
-        <f>_xlfn.CHISQ.TEST(B154:C154,E154:F154)</f>
+        <f t="shared" si="10"/>
         <v>0.1805929579919589</v>
       </c>
       <c r="H154" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.4280262110989645</v>
       </c>
     </row>
@@ -6152,19 +6198,19 @@
         <v>55</v>
       </c>
       <c r="E155" s="3">
-        <f>$D155*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>4.3657457419901551</v>
       </c>
       <c r="F155" s="3">
-        <f>$D155*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>50.634254258009847</v>
       </c>
       <c r="G155" s="2">
-        <f>_xlfn.CHISQ.TEST(B155:C155,E155:F155)</f>
+        <f t="shared" si="10"/>
         <v>0.18885410368807759</v>
       </c>
       <c r="H155" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.6342542580098449</v>
       </c>
     </row>
@@ -6182,19 +6228,19 @@
         <v>1642</v>
       </c>
       <c r="E156" s="3">
-        <f>$D156*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>130.33735469723334</v>
       </c>
       <c r="F156" s="3">
-        <f>$D156*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>1511.6626453027666</v>
       </c>
       <c r="G156" s="2">
-        <f>_xlfn.CHISQ.TEST(B156:C156,E156:F156)</f>
+        <f t="shared" si="10"/>
         <v>0.19058124870365389</v>
       </c>
       <c r="H156" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-14.337354697233337</v>
       </c>
     </row>
@@ -6212,19 +6258,19 @@
         <v>41</v>
       </c>
       <c r="E157" s="3">
-        <f>$D157*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>3.254465007665388</v>
       </c>
       <c r="F157" s="3">
-        <f>$D157*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>37.745534992334612</v>
       </c>
       <c r="G157" s="2">
-        <f>_xlfn.CHISQ.TEST(B157:C157,E157:F157)</f>
+        <f t="shared" si="10"/>
         <v>0.19276078482140568</v>
       </c>
       <c r="H157" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.254465007665388</v>
       </c>
     </row>
@@ -6242,19 +6288,19 @@
         <v>148</v>
       </c>
       <c r="E158" s="3">
-        <f>$D158*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>11.747824905718961</v>
       </c>
       <c r="F158" s="3">
-        <f>$D158*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>136.25217509428103</v>
       </c>
       <c r="G158" s="2">
-        <f>_xlfn.CHISQ.TEST(B158:C158,E158:F158)</f>
+        <f t="shared" si="10"/>
         <v>0.19601824886547395</v>
       </c>
       <c r="H158" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.2521750942810392</v>
       </c>
     </row>
@@ -6272,19 +6318,19 @@
         <v>259</v>
       </c>
       <c r="E159" s="3">
-        <f>$D159*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>20.558693585008182</v>
       </c>
       <c r="F159" s="3">
-        <f>$D159*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>238.44130641499183</v>
       </c>
       <c r="G159" s="2">
-        <f>_xlfn.CHISQ.TEST(B159:C159,E159:F159)</f>
+        <f t="shared" si="10"/>
         <v>0.2013498093902151</v>
       </c>
       <c r="H159" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-5.5586935850081822</v>
       </c>
     </row>
@@ -6302,19 +6348,19 @@
         <v>4</v>
       </c>
       <c r="E160" s="3">
-        <f>$D160*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>0.31750878123564763</v>
       </c>
       <c r="F160" s="3">
-        <f>$D160*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>3.6824912187643526</v>
       </c>
       <c r="G160" s="2">
-        <f>_xlfn.CHISQ.TEST(B160:C160,E160:F160)</f>
+        <f t="shared" si="10"/>
         <v>0.20682438957973448</v>
       </c>
       <c r="H160" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.68249121876435237</v>
       </c>
     </row>
@@ -6332,19 +6378,19 @@
         <v>4</v>
       </c>
       <c r="E161" s="3">
-        <f>$D161*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>0.31750878123564763</v>
       </c>
       <c r="F161" s="3">
-        <f>$D161*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>3.6824912187643526</v>
       </c>
       <c r="G161" s="2">
-        <f>_xlfn.CHISQ.TEST(B161:C161,E161:F161)</f>
+        <f t="shared" si="10"/>
         <v>0.20682438957973448</v>
       </c>
       <c r="H161" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.68249121876435237</v>
       </c>
     </row>
@@ -6362,19 +6408,19 @@
         <v>747</v>
       </c>
       <c r="E162" s="3">
-        <f>$D162*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>59.29476489575719</v>
       </c>
       <c r="F162" s="3">
-        <f>$D162*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>687.70523510424277</v>
       </c>
       <c r="G162" s="2">
-        <f>_xlfn.CHISQ.TEST(B162:C162,E162:F162)</f>
+        <f t="shared" si="10"/>
         <v>0.20838261304799408</v>
       </c>
       <c r="H162" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-9.29476489575719</v>
       </c>
     </row>
@@ -6392,19 +6438,19 @@
         <v>91</v>
       </c>
       <c r="E163" s="3">
-        <f>$D163*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>7.2233247731109831</v>
       </c>
       <c r="F163" s="3">
-        <f>$D163*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>83.776675226889012</v>
       </c>
       <c r="G163" s="2">
-        <f>_xlfn.CHISQ.TEST(B163:C163,E163:F163)</f>
+        <f t="shared" si="10"/>
         <v>0.21131572059140705</v>
       </c>
       <c r="H163" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-3.2233247731109831</v>
       </c>
     </row>
@@ -6422,19 +6468,19 @@
         <v>183</v>
       </c>
       <c r="E164" s="3">
-        <f>$D164*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>14.526026741530877</v>
       </c>
       <c r="F164" s="3">
-        <f>$D164*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>168.47397325846913</v>
       </c>
       <c r="G164" s="2">
-        <f>_xlfn.CHISQ.TEST(B164:C164,E164:F164)</f>
+        <f t="shared" si="10"/>
         <v>0.22116735550797156</v>
       </c>
       <c r="H164" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.4739732584691225</v>
       </c>
     </row>
@@ -6452,19 +6498,19 @@
         <v>152</v>
       </c>
       <c r="E165" s="3">
-        <f>$D165*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>12.06533368695461</v>
       </c>
       <c r="F165" s="3">
-        <f>$D165*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>139.9346663130454</v>
       </c>
       <c r="G165" s="2">
-        <f>_xlfn.CHISQ.TEST(B165:C165,E165:F165)</f>
+        <f t="shared" si="10"/>
         <v>0.22254385735461835</v>
       </c>
       <c r="H165" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-4.0653336869546095</v>
       </c>
     </row>
@@ -6482,19 +6528,19 @@
         <v>57</v>
       </c>
       <c r="E166" s="3">
-        <f>$D166*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>4.5245001326079786</v>
       </c>
       <c r="F166" s="3">
-        <f>$D166*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>52.475499867392024</v>
       </c>
       <c r="G166" s="2">
-        <f>_xlfn.CHISQ.TEST(B166:C166,E166:F166)</f>
+        <f t="shared" si="10"/>
         <v>0.2251555138874225</v>
       </c>
       <c r="H166" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.4754998673920214</v>
       </c>
     </row>
@@ -6512,19 +6558,19 @@
         <v>67</v>
       </c>
       <c r="E167" s="3">
-        <f>$D167*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>5.3182720856970978</v>
       </c>
       <c r="F167" s="3">
-        <f>$D167*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>61.681727914302904</v>
       </c>
       <c r="G167" s="2">
-        <f>_xlfn.CHISQ.TEST(B167:C167,E167:F167)</f>
+        <f t="shared" si="10"/>
         <v>0.22552738743380435</v>
       </c>
       <c r="H167" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.6817279143029022</v>
       </c>
     </row>
@@ -6542,19 +6588,19 @@
         <v>38</v>
       </c>
       <c r="E168" s="3">
-        <f>$D168*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>3.0163334217386524</v>
       </c>
       <c r="F168" s="3">
-        <f>$D168*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>34.983666578261349</v>
       </c>
       <c r="G168" s="2">
-        <f>_xlfn.CHISQ.TEST(B168:C168,E168:F168)</f>
+        <f t="shared" si="10"/>
         <v>0.22628269767736997</v>
       </c>
       <c r="H168" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.0163334217386524</v>
       </c>
     </row>
@@ -6572,19 +6618,19 @@
         <v>56</v>
       </c>
       <c r="E169" s="3">
-        <f>$D169*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>4.4451229372990664</v>
       </c>
       <c r="F169" s="3">
-        <f>$D169*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>51.554877062700932</v>
       </c>
       <c r="G169" s="2">
-        <f>_xlfn.CHISQ.TEST(B169:C169,E169:F169)</f>
+        <f t="shared" si="10"/>
         <v>0.22677873670771551</v>
       </c>
       <c r="H169" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.4451229372990664</v>
       </c>
     </row>
@@ -6602,19 +6648,19 @@
         <v>56</v>
       </c>
       <c r="E170" s="3">
-        <f>$D170*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>4.4451229372990664</v>
       </c>
       <c r="F170" s="3">
-        <f>$D170*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>51.554877062700932</v>
       </c>
       <c r="G170" s="2">
-        <f>_xlfn.CHISQ.TEST(B170:C170,E170:F170)</f>
+        <f t="shared" si="10"/>
         <v>0.22677873670771551</v>
       </c>
       <c r="H170" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.4451229372990664</v>
       </c>
     </row>
@@ -6632,19 +6678,19 @@
         <v>38</v>
       </c>
       <c r="E171" s="3">
-        <f>$D171*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>3.0163334217386524</v>
       </c>
       <c r="F171" s="3">
-        <f>$D171*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>34.983666578261349</v>
       </c>
       <c r="G171" s="2">
-        <f>_xlfn.CHISQ.TEST(B171:C171,E171:F171)</f>
+        <f t="shared" si="10"/>
         <v>0.23389435959790364</v>
       </c>
       <c r="H171" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.9836665782613476</v>
       </c>
     </row>
@@ -6662,19 +6708,19 @@
         <v>55</v>
       </c>
       <c r="E172" s="3">
-        <f>$D172*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>4.3657457419901551</v>
       </c>
       <c r="F172" s="3">
-        <f>$D172*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>50.634254258009847</v>
       </c>
       <c r="G172" s="2">
-        <f>_xlfn.CHISQ.TEST(B172:C172,E172:F172)</f>
+        <f t="shared" si="10"/>
         <v>0.23798295074613829</v>
       </c>
       <c r="H172" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.3657457419901551</v>
       </c>
     </row>
@@ -6692,19 +6738,19 @@
         <v>150</v>
       </c>
       <c r="E173" s="3">
-        <f>$D173*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>11.906579296336785</v>
       </c>
       <c r="F173" s="3">
-        <f>$D173*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>138.09342070366321</v>
       </c>
       <c r="G173" s="2">
-        <f>_xlfn.CHISQ.TEST(B173:C173,E173:F173)</f>
+        <f t="shared" si="10"/>
         <v>0.2380215381312594</v>
       </c>
       <c r="H173" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-3.9065792963367851</v>
       </c>
     </row>
@@ -6722,19 +6768,19 @@
         <v>48</v>
       </c>
       <c r="E174" s="3">
-        <f>$D174*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>3.8101053748277716</v>
       </c>
       <c r="F174" s="3">
-        <f>$D174*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>44.189894625172229</v>
       </c>
       <c r="G174" s="2">
-        <f>_xlfn.CHISQ.TEST(B174:C174,E174:F174)</f>
+        <f t="shared" si="10"/>
         <v>0.24229589324863127</v>
       </c>
       <c r="H174" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.1898946251722284</v>
       </c>
     </row>
@@ -6752,19 +6798,19 @@
         <v>48</v>
       </c>
       <c r="E175" s="3">
-        <f>$D175*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>3.8101053748277716</v>
       </c>
       <c r="F175" s="3">
-        <f>$D175*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>44.189894625172229</v>
       </c>
       <c r="G175" s="2">
-        <f>_xlfn.CHISQ.TEST(B175:C175,E175:F175)</f>
+        <f t="shared" si="10"/>
         <v>0.24229589324863127</v>
       </c>
       <c r="H175" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.1898946251722284</v>
       </c>
     </row>
@@ -6782,19 +6828,19 @@
         <v>119</v>
       </c>
       <c r="E176" s="3">
-        <f>$D176*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>9.4458862417605172</v>
       </c>
       <c r="F176" s="3">
-        <f>$D176*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>109.55411375823948</v>
       </c>
       <c r="G176" s="2">
-        <f>_xlfn.CHISQ.TEST(B176:C176,E176:F176)</f>
+        <f t="shared" si="10"/>
         <v>0.24259429316566941</v>
       </c>
       <c r="H176" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-3.4458862417605172</v>
       </c>
     </row>
@@ -6812,19 +6858,19 @@
         <v>70</v>
       </c>
       <c r="E177" s="3">
-        <f>$D177*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>5.5564036716238334</v>
       </c>
       <c r="F177" s="3">
-        <f>$D177*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>64.443596328376174</v>
       </c>
       <c r="G177" s="2">
-        <f>_xlfn.CHISQ.TEST(B177:C177,E177:F177)</f>
+        <f t="shared" si="10"/>
         <v>0.25835208643709734</v>
       </c>
       <c r="H177" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.5564036716238334</v>
       </c>
     </row>
@@ -6842,19 +6888,19 @@
         <v>278</v>
       </c>
       <c r="E178" s="3">
-        <f>$D178*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>22.066860295877508</v>
       </c>
       <c r="F178" s="3">
-        <f>$D178*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>255.93313970412248</v>
       </c>
       <c r="G178" s="2">
-        <f>_xlfn.CHISQ.TEST(B178:C178,E178:F178)</f>
+        <f t="shared" si="10"/>
         <v>0.26094552317776643</v>
       </c>
       <c r="H178" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-5.0668602958775075</v>
       </c>
     </row>
@@ -6872,19 +6918,19 @@
         <v>69</v>
       </c>
       <c r="E179" s="3">
-        <f>$D179*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>5.4770264763149212</v>
       </c>
       <c r="F179" s="3">
-        <f>$D179*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>63.522973523685081</v>
       </c>
       <c r="G179" s="2">
-        <f>_xlfn.CHISQ.TEST(B179:C179,E179:F179)</f>
+        <f t="shared" si="10"/>
         <v>0.26119628637441111</v>
       </c>
       <c r="H179" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.5229735236850788</v>
       </c>
     </row>
@@ -6902,19 +6948,19 @@
         <v>132</v>
       </c>
       <c r="E180" s="3">
-        <f>$D180*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>10.477789780776371</v>
       </c>
       <c r="F180" s="3">
-        <f>$D180*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>121.52221021922362</v>
       </c>
       <c r="G180" s="2">
-        <f>_xlfn.CHISQ.TEST(B180:C180,E180:F180)</f>
+        <f t="shared" si="10"/>
         <v>0.26281311163940974</v>
       </c>
       <c r="H180" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-3.4777897807763711</v>
       </c>
     </row>
@@ -6932,19 +6978,19 @@
         <v>12</v>
       </c>
       <c r="E181" s="3">
-        <f>$D181*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>0.95252634370694289</v>
       </c>
       <c r="F181" s="3">
-        <f>$D181*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>11.047473656293057</v>
       </c>
       <c r="G181" s="2">
-        <f>_xlfn.CHISQ.TEST(B181:C181,E181:F181)</f>
+        <f t="shared" si="10"/>
         <v>0.2633229904206395</v>
       </c>
       <c r="H181" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.0474736562930571</v>
       </c>
     </row>
@@ -6962,19 +7008,19 @@
         <v>731</v>
       </c>
       <c r="E182" s="3">
-        <f>$D182*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>58.024729770814602</v>
       </c>
       <c r="F182" s="3">
-        <f>$D182*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>672.97527022918541</v>
       </c>
       <c r="G182" s="2">
-        <f>_xlfn.CHISQ.TEST(B182:C182,E182:F182)</f>
+        <f t="shared" si="10"/>
         <v>0.27222585268400656</v>
       </c>
       <c r="H182" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-8.0247297708146021</v>
       </c>
     </row>
@@ -6992,19 +7038,19 @@
         <v>166</v>
       </c>
       <c r="E183" s="3">
-        <f>$D183*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>13.176614421279377</v>
       </c>
       <c r="F183" s="3">
-        <f>$D183*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>152.82338557872063</v>
       </c>
       <c r="G183" s="2">
-        <f>_xlfn.CHISQ.TEST(B183:C183,E183:F183)</f>
+        <f t="shared" si="10"/>
         <v>0.27231160675675908</v>
       </c>
       <c r="H183" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.8233855787206235</v>
       </c>
     </row>
@@ -7022,19 +7068,19 @@
         <v>404</v>
       </c>
       <c r="E184" s="3">
-        <f>$D184*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>32.068386904800406</v>
       </c>
       <c r="F184" s="3">
-        <f>$D184*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>371.93161309519957</v>
       </c>
       <c r="G184" s="2">
-        <f>_xlfn.CHISQ.TEST(B184:C184,E184:F184)</f>
+        <f t="shared" si="10"/>
         <v>0.27497594561663613</v>
       </c>
       <c r="H184" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>5.9316130951995945</v>
       </c>
     </row>
@@ -7052,19 +7098,19 @@
         <v>222</v>
       </c>
       <c r="E185" s="3">
-        <f>$D185*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>17.621737358578443</v>
       </c>
       <c r="F185" s="3">
-        <f>$D185*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>204.37826264142157</v>
       </c>
       <c r="G185" s="2">
-        <f>_xlfn.CHISQ.TEST(B185:C185,E185:F185)</f>
+        <f t="shared" si="10"/>
         <v>0.27702902258657336</v>
       </c>
       <c r="H185" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>4.3782626414215571</v>
       </c>
     </row>
@@ -7082,19 +7128,19 @@
         <v>100</v>
       </c>
       <c r="E186" s="3">
-        <f>$D186*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>7.9377195308911901</v>
       </c>
       <c r="F186" s="3">
-        <f>$D186*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>92.062280469108813</v>
       </c>
       <c r="G186" s="2">
-        <f>_xlfn.CHISQ.TEST(B186:C186,E186:F186)</f>
+        <f t="shared" si="10"/>
         <v>0.27715622325775957</v>
       </c>
       <c r="H186" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.9377195308911901</v>
       </c>
     </row>
@@ -7112,19 +7158,19 @@
         <v>21</v>
       </c>
       <c r="E187" s="3">
-        <f>$D187*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>1.6669211014871499</v>
       </c>
       <c r="F187" s="3">
-        <f>$D187*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>19.333078898512849</v>
       </c>
       <c r="G187" s="2">
-        <f>_xlfn.CHISQ.TEST(B187:C187,E187:F187)</f>
+        <f t="shared" si="10"/>
         <v>0.2818771770879881</v>
       </c>
       <c r="H187" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.3330788985128501</v>
       </c>
     </row>
@@ -7142,19 +7188,19 @@
         <v>189</v>
       </c>
       <c r="E188" s="3">
-        <f>$D188*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>15.002289913384349</v>
       </c>
       <c r="F188" s="3">
-        <f>$D188*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>173.99771008661565</v>
       </c>
       <c r="G188" s="2">
-        <f>_xlfn.CHISQ.TEST(B188:C188,E188:F188)</f>
+        <f t="shared" si="10"/>
         <v>0.28206090874855833</v>
       </c>
       <c r="H188" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.9977100866156512</v>
       </c>
     </row>
@@ -7172,19 +7218,19 @@
         <v>68</v>
       </c>
       <c r="E189" s="3">
-        <f>$D189*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>5.397649281006009</v>
       </c>
       <c r="F189" s="3">
-        <f>$D189*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>62.602350718993989</v>
       </c>
       <c r="G189" s="2">
-        <f>_xlfn.CHISQ.TEST(B189:C189,E189:F189)</f>
+        <f t="shared" si="10"/>
         <v>0.28211542084852587</v>
       </c>
       <c r="H189" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.397649281006009</v>
       </c>
     </row>
@@ -7202,19 +7248,19 @@
         <v>60</v>
       </c>
       <c r="E190" s="3">
-        <f>$D190*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>4.7626317185347142</v>
       </c>
       <c r="F190" s="3">
-        <f>$D190*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>55.237368281465287</v>
       </c>
       <c r="G190" s="2">
-        <f>_xlfn.CHISQ.TEST(B190:C190,E190:F190)</f>
+        <f t="shared" si="10"/>
         <v>0.28529659866066887</v>
       </c>
       <c r="H190" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.2373682814652858</v>
       </c>
     </row>
@@ -7232,19 +7278,19 @@
         <v>40</v>
       </c>
       <c r="E191" s="3">
-        <f>$D191*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>3.1750878123564763</v>
       </c>
       <c r="F191" s="3">
-        <f>$D191*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>36.824912187643527</v>
       </c>
       <c r="G191" s="2">
-        <f>_xlfn.CHISQ.TEST(B191:C191,E191:F191)</f>
+        <f t="shared" si="10"/>
         <v>0.28579564336601848</v>
       </c>
       <c r="H191" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.8249121876435237</v>
       </c>
     </row>
@@ -7262,19 +7308,19 @@
         <v>92</v>
       </c>
       <c r="E192" s="3">
-        <f>$D192*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>7.3027019684198953</v>
       </c>
       <c r="F192" s="3">
-        <f>$D192*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>84.697298031580104</v>
       </c>
       <c r="G192" s="2">
-        <f>_xlfn.CHISQ.TEST(B192:C192,E192:F192)</f>
+        <f t="shared" si="10"/>
         <v>0.29821424593731199</v>
       </c>
       <c r="H192" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.6972980315801047</v>
       </c>
     </row>
@@ -7292,19 +7338,19 @@
         <v>82</v>
       </c>
       <c r="E193" s="3">
-        <f>$D193*B$363/$D$363</f>
+        <f t="shared" si="8"/>
         <v>6.5089300153307761</v>
       </c>
       <c r="F193" s="3">
-        <f>$D193*C$363/$D$363</f>
+        <f t="shared" si="9"/>
         <v>75.491069984669224</v>
       </c>
       <c r="G193" s="2">
-        <f>_xlfn.CHISQ.TEST(B193:C193,E193:F193)</f>
+        <f t="shared" si="10"/>
         <v>0.30539769175351128</v>
       </c>
       <c r="H193" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-2.5089300153307761</v>
       </c>
     </row>
@@ -7322,19 +7368,19 @@
         <v>8304</v>
       </c>
       <c r="E194" s="3">
-        <f>$D194*B$363/$D$363</f>
+        <f t="shared" ref="E194:E257" si="12">$D194*B$363/$D$363</f>
         <v>659.14822984520447</v>
       </c>
       <c r="F194" s="3">
-        <f>$D194*C$363/$D$363</f>
+        <f t="shared" ref="F194:F257" si="13">$D194*C$363/$D$363</f>
         <v>7644.8517701547953</v>
       </c>
       <c r="G194" s="2">
-        <f>_xlfn.CHISQ.TEST(B194:C194,E194:F194)</f>
+        <f t="shared" ref="G194:G257" si="14">_xlfn.CHISQ.TEST(B194:C194,E194:F194)</f>
         <v>0.30731094386711544</v>
       </c>
       <c r="H194" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>-25.148229845204469</v>
       </c>
     </row>
@@ -7352,19 +7398,19 @@
         <v>5</v>
       </c>
       <c r="E195" s="3">
-        <f>$D195*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>0.39688597654455954</v>
       </c>
       <c r="F195" s="3">
-        <f>$D195*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>4.6031140234554409</v>
       </c>
       <c r="G195" s="2">
-        <f>_xlfn.CHISQ.TEST(B195:C195,E195:F195)</f>
+        <f t="shared" si="14"/>
         <v>0.318396200707108</v>
       </c>
       <c r="H195" s="2">
-        <f t="shared" ref="H195:H258" si="3">B195-E195</f>
+        <f t="shared" ref="H195:H258" si="15">B195-E195</f>
         <v>0.60311402345544041</v>
       </c>
     </row>
@@ -7382,19 +7428,19 @@
         <v>5</v>
       </c>
       <c r="E196" s="3">
-        <f>$D196*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>0.39688597654455954</v>
       </c>
       <c r="F196" s="3">
-        <f>$D196*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>4.6031140234554409</v>
       </c>
       <c r="G196" s="2">
-        <f>_xlfn.CHISQ.TEST(B196:C196,E196:F196)</f>
+        <f t="shared" si="14"/>
         <v>0.318396200707108</v>
       </c>
       <c r="H196" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>0.60311402345544041</v>
       </c>
     </row>
@@ -7412,19 +7458,19 @@
         <v>5</v>
       </c>
       <c r="E197" s="3">
-        <f>$D197*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>0.39688597654455954</v>
       </c>
       <c r="F197" s="3">
-        <f>$D197*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>4.6031140234554409</v>
       </c>
       <c r="G197" s="2">
-        <f>_xlfn.CHISQ.TEST(B197:C197,E197:F197)</f>
+        <f t="shared" si="14"/>
         <v>0.318396200707108</v>
       </c>
       <c r="H197" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>0.60311402345544041</v>
       </c>
     </row>
@@ -7442,19 +7488,19 @@
         <v>5</v>
       </c>
       <c r="E198" s="3">
-        <f>$D198*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>0.39688597654455954</v>
       </c>
       <c r="F198" s="3">
-        <f>$D198*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>4.6031140234554409</v>
       </c>
       <c r="G198" s="2">
-        <f>_xlfn.CHISQ.TEST(B198:C198,E198:F198)</f>
+        <f t="shared" si="14"/>
         <v>0.318396200707108</v>
       </c>
       <c r="H198" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>0.60311402345544041</v>
       </c>
     </row>
@@ -7472,19 +7518,19 @@
         <v>13</v>
       </c>
       <c r="E199" s="3">
-        <f>$D199*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>1.0319035390158546</v>
       </c>
       <c r="F199" s="3">
-        <f>$D199*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>11.968096460984146</v>
       </c>
       <c r="G199" s="2">
-        <f>_xlfn.CHISQ.TEST(B199:C199,E199:F199)</f>
+        <f t="shared" si="14"/>
         <v>0.3205885345529782</v>
       </c>
       <c r="H199" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>0.96809646098414537</v>
       </c>
     </row>
@@ -7502,19 +7548,19 @@
         <v>159</v>
       </c>
       <c r="E200" s="3">
-        <f>$D200*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>12.620974054116992</v>
       </c>
       <c r="F200" s="3">
-        <f>$D200*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>146.379025945883</v>
       </c>
       <c r="G200" s="2">
-        <f>_xlfn.CHISQ.TEST(B200:C200,E200:F200)</f>
+        <f t="shared" si="14"/>
         <v>0.32154009453548282</v>
       </c>
       <c r="H200" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>3.3790259458830079</v>
       </c>
     </row>
@@ -7532,19 +7578,19 @@
         <v>95</v>
       </c>
       <c r="E201" s="3">
-        <f>$D201*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>7.5408335543466309</v>
       </c>
       <c r="F201" s="3">
-        <f>$D201*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>87.459166445653366</v>
       </c>
       <c r="G201" s="2">
-        <f>_xlfn.CHISQ.TEST(B201:C201,E201:F201)</f>
+        <f t="shared" si="14"/>
         <v>0.33488050854624762</v>
       </c>
       <c r="H201" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-2.5408335543466309</v>
       </c>
     </row>
@@ -7562,19 +7608,19 @@
         <v>95</v>
       </c>
       <c r="E202" s="3">
-        <f>$D202*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>7.5408335543466309</v>
       </c>
       <c r="F202" s="3">
-        <f>$D202*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>87.459166445653366</v>
       </c>
       <c r="G202" s="2">
-        <f>_xlfn.CHISQ.TEST(B202:C202,E202:F202)</f>
+        <f t="shared" si="14"/>
         <v>0.33488050854624762</v>
       </c>
       <c r="H202" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-2.5408335543466309</v>
       </c>
     </row>
@@ -7592,19 +7638,19 @@
         <v>183</v>
       </c>
       <c r="E203" s="3">
-        <f>$D203*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>14.526026741530877</v>
       </c>
       <c r="F203" s="3">
-        <f>$D203*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>168.47397325846913</v>
       </c>
       <c r="G203" s="2">
-        <f>_xlfn.CHISQ.TEST(B203:C203,E203:F203)</f>
+        <f t="shared" si="14"/>
         <v>0.33494100080783629</v>
       </c>
       <c r="H203" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-3.5260267415308775</v>
       </c>
     </row>
@@ -7622,19 +7668,19 @@
         <v>529</v>
       </c>
       <c r="E204" s="3">
-        <f>$D204*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>41.990536318414399</v>
       </c>
       <c r="F204" s="3">
-        <f>$D204*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>487.0094636815856</v>
       </c>
       <c r="G204" s="2">
-        <f>_xlfn.CHISQ.TEST(B204:C204,E204:F204)</f>
+        <f t="shared" si="14"/>
         <v>0.33529954481216279</v>
       </c>
       <c r="H204" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-5.9905363184143994</v>
       </c>
     </row>
@@ -7652,19 +7698,19 @@
         <v>64</v>
       </c>
       <c r="E205" s="3">
-        <f>$D205*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>5.0801404997703621</v>
       </c>
       <c r="F205" s="3">
-        <f>$D205*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>58.919859500229641</v>
       </c>
       <c r="G205" s="2">
-        <f>_xlfn.CHISQ.TEST(B205:C205,E205:F205)</f>
+        <f t="shared" si="14"/>
         <v>0.33611762042722348</v>
       </c>
       <c r="H205" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-2.0801404997703621</v>
       </c>
     </row>
@@ -7682,19 +7728,19 @@
         <v>52</v>
       </c>
       <c r="E206" s="3">
-        <f>$D206*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>4.1276141560634185</v>
       </c>
       <c r="F206" s="3">
-        <f>$D206*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>47.872385843936584</v>
       </c>
       <c r="G206" s="2">
-        <f>_xlfn.CHISQ.TEST(B206:C206,E206:F206)</f>
+        <f t="shared" si="14"/>
         <v>0.33679521015456609</v>
       </c>
       <c r="H206" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.8723858439365815</v>
       </c>
     </row>
@@ -7712,19 +7758,19 @@
         <v>364</v>
       </c>
       <c r="E207" s="3">
-        <f>$D207*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>28.893299092443932</v>
       </c>
       <c r="F207" s="3">
-        <f>$D207*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>335.10670090755605</v>
       </c>
       <c r="G207" s="2">
-        <f>_xlfn.CHISQ.TEST(B207:C207,E207:F207)</f>
+        <f t="shared" si="14"/>
         <v>0.34273606150047314</v>
       </c>
       <c r="H207" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-4.8932990924439324</v>
       </c>
     </row>
@@ -7742,19 +7788,19 @@
         <v>172</v>
       </c>
       <c r="E208" s="3">
-        <f>$D208*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>13.652877593132848</v>
       </c>
       <c r="F208" s="3">
-        <f>$D208*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>158.34712240686716</v>
       </c>
       <c r="G208" s="2">
-        <f>_xlfn.CHISQ.TEST(B208:C208,E208:F208)</f>
+        <f t="shared" si="14"/>
         <v>0.34511784404751017</v>
       </c>
       <c r="H208" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>3.3471224068671521</v>
       </c>
     </row>
@@ -7772,19 +7818,19 @@
         <v>555</v>
       </c>
       <c r="E209" s="3">
-        <f>$D209*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>44.054343396446107</v>
       </c>
       <c r="F209" s="3">
-        <f>$D209*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>510.94565660355391</v>
       </c>
       <c r="G209" s="2">
-        <f>_xlfn.CHISQ.TEST(B209:C209,E209:F209)</f>
+        <f t="shared" si="14"/>
         <v>0.35050610671403626</v>
       </c>
       <c r="H209" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>5.9456566035538927</v>
       </c>
     </row>
@@ -7802,19 +7848,19 @@
         <v>95</v>
       </c>
       <c r="E210" s="3">
-        <f>$D210*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>7.5408335543466309</v>
       </c>
       <c r="F210" s="3">
-        <f>$D210*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>87.459166445653366</v>
       </c>
       <c r="G210" s="2">
-        <f>_xlfn.CHISQ.TEST(B210:C210,E210:F210)</f>
+        <f t="shared" si="14"/>
         <v>0.35064721742148586</v>
       </c>
       <c r="H210" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.4591664456533691</v>
       </c>
     </row>
@@ -7832,19 +7878,19 @@
         <v>117</v>
       </c>
       <c r="E211" s="3">
-        <f>$D211*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>9.2871318511426928</v>
       </c>
       <c r="F211" s="3">
-        <f>$D211*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>107.71286814885731</v>
       </c>
       <c r="G211" s="2">
-        <f>_xlfn.CHISQ.TEST(B211:C211,E211:F211)</f>
+        <f t="shared" si="14"/>
         <v>0.35351947226161906</v>
       </c>
       <c r="H211" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.7128681488573072</v>
       </c>
     </row>
@@ -7862,19 +7908,19 @@
         <v>901</v>
       </c>
       <c r="E212" s="3">
-        <f>$D212*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>71.518852973329629</v>
       </c>
       <c r="F212" s="3">
-        <f>$D212*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>829.48114702667033</v>
       </c>
       <c r="G212" s="2">
-        <f>_xlfn.CHISQ.TEST(B212:C212,E212:F212)</f>
+        <f t="shared" si="14"/>
         <v>0.35412520988141483</v>
       </c>
       <c r="H212" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-7.5188529733296292</v>
       </c>
     </row>
@@ -7892,19 +7938,19 @@
         <v>108</v>
       </c>
       <c r="E213" s="3">
-        <f>$D213*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>8.5727370933624858</v>
       </c>
       <c r="F213" s="3">
-        <f>$D213*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>99.427262906637509</v>
       </c>
       <c r="G213" s="2">
-        <f>_xlfn.CHISQ.TEST(B213:C213,E213:F213)</f>
+        <f t="shared" si="14"/>
         <v>0.35977827247716532</v>
       </c>
       <c r="H213" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-2.5727370933624858</v>
       </c>
     </row>
@@ -7922,19 +7968,19 @@
         <v>74</v>
       </c>
       <c r="E214" s="3">
-        <f>$D214*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>5.8739124528594804</v>
       </c>
       <c r="F214" s="3">
-        <f>$D214*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>68.126087547140514</v>
       </c>
       <c r="G214" s="2">
-        <f>_xlfn.CHISQ.TEST(B214:C214,E214:F214)</f>
+        <f t="shared" si="14"/>
         <v>0.36057269503908607</v>
       </c>
       <c r="H214" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.1260875471405196</v>
       </c>
     </row>
@@ -7952,19 +7998,19 @@
         <v>62</v>
       </c>
       <c r="E215" s="3">
-        <f>$D215*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>4.9213861091525377</v>
       </c>
       <c r="F215" s="3">
-        <f>$D215*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>57.078613890847464</v>
       </c>
       <c r="G215" s="2">
-        <f>_xlfn.CHISQ.TEST(B215:C215,E215:F215)</f>
+        <f t="shared" si="14"/>
         <v>0.36669990025333404</v>
       </c>
       <c r="H215" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-1.9213861091525377</v>
       </c>
     </row>
@@ -7982,19 +8028,19 @@
         <v>250</v>
       </c>
       <c r="E216" s="3">
-        <f>$D216*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>19.844298827227977</v>
       </c>
       <c r="F216" s="3">
-        <f>$D216*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>230.15570117277201</v>
       </c>
       <c r="G216" s="2">
-        <f>_xlfn.CHISQ.TEST(B216:C216,E216:F216)</f>
+        <f t="shared" si="14"/>
         <v>0.36843356063477978</v>
       </c>
       <c r="H216" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-3.844298827227977</v>
       </c>
     </row>
@@ -8012,19 +8058,19 @@
         <v>713</v>
       </c>
       <c r="E217" s="3">
-        <f>$D217*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>56.595940255254185</v>
       </c>
       <c r="F217" s="3">
-        <f>$D217*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>656.40405974474584</v>
       </c>
       <c r="G217" s="2">
-        <f>_xlfn.CHISQ.TEST(B217:C217,E217:F217)</f>
+        <f t="shared" si="14"/>
         <v>0.37497086105620503</v>
       </c>
       <c r="H217" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>6.4040597447458154</v>
       </c>
     </row>
@@ -8042,19 +8088,19 @@
         <v>152</v>
       </c>
       <c r="E218" s="3">
-        <f>$D218*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>12.06533368695461</v>
       </c>
       <c r="F218" s="3">
-        <f>$D218*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>139.9346663130454</v>
       </c>
       <c r="G218" s="2">
-        <f>_xlfn.CHISQ.TEST(B218:C218,E218:F218)</f>
+        <f t="shared" si="14"/>
         <v>0.37856782912821313</v>
       </c>
       <c r="H218" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.9346663130453905</v>
       </c>
     </row>
@@ -8072,19 +8118,19 @@
         <v>14</v>
       </c>
       <c r="E219" s="3">
-        <f>$D219*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>1.1112807343247666</v>
       </c>
       <c r="F219" s="3">
-        <f>$D219*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>12.888719265675233</v>
       </c>
       <c r="G219" s="2">
-        <f>_xlfn.CHISQ.TEST(B219:C219,E219:F219)</f>
+        <f t="shared" si="14"/>
         <v>0.37959554858094469</v>
       </c>
       <c r="H219" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>0.88871926567523341</v>
       </c>
     </row>
@@ -8102,19 +8148,19 @@
         <v>119</v>
       </c>
       <c r="E220" s="3">
-        <f>$D220*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>9.4458862417605172</v>
       </c>
       <c r="F220" s="3">
-        <f>$D220*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>109.55411375823948</v>
       </c>
       <c r="G220" s="2">
-        <f>_xlfn.CHISQ.TEST(B220:C220,E220:F220)</f>
+        <f t="shared" si="14"/>
         <v>0.3864244136959839</v>
       </c>
       <c r="H220" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.5541137582394828</v>
       </c>
     </row>
@@ -8132,19 +8178,19 @@
         <v>54</v>
       </c>
       <c r="E221" s="3">
-        <f>$D221*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>4.2863685466812429</v>
       </c>
       <c r="F221" s="3">
-        <f>$D221*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>49.713631453318754</v>
       </c>
       <c r="G221" s="2">
-        <f>_xlfn.CHISQ.TEST(B221:C221,E221:F221)</f>
+        <f t="shared" si="14"/>
         <v>0.38833301224795608</v>
       </c>
       <c r="H221" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.7136314533187571</v>
       </c>
     </row>
@@ -8162,19 +8208,19 @@
         <v>2476</v>
       </c>
       <c r="E222" s="3">
-        <f>$D222*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>196.53793558486586</v>
       </c>
       <c r="F222" s="3">
-        <f>$D222*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>2279.4620644151341</v>
       </c>
       <c r="G222" s="2">
-        <f>_xlfn.CHISQ.TEST(B222:C222,E222:F222)</f>
+        <f t="shared" si="14"/>
         <v>0.3910268984049125</v>
       </c>
       <c r="H222" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-11.537935584865863</v>
       </c>
     </row>
@@ -8192,19 +8238,19 @@
         <v>28</v>
       </c>
       <c r="E223" s="3">
-        <f>$D223*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>2.2225614686495332</v>
       </c>
       <c r="F223" s="3">
-        <f>$D223*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>25.777438531350466</v>
       </c>
       <c r="G223" s="2">
-        <f>_xlfn.CHISQ.TEST(B223:C223,E223:F223)</f>
+        <f t="shared" si="14"/>
         <v>0.39272897078076774</v>
       </c>
       <c r="H223" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-1.2225614686495332</v>
       </c>
     </row>
@@ -8222,19 +8268,19 @@
         <v>44</v>
       </c>
       <c r="E224" s="3">
-        <f>$D224*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>3.4925965935921237</v>
       </c>
       <c r="F224" s="3">
-        <f>$D224*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>40.507403406407875</v>
       </c>
       <c r="G224" s="2">
-        <f>_xlfn.CHISQ.TEST(B224:C224,E224:F224)</f>
+        <f t="shared" si="14"/>
         <v>0.40054490932730202</v>
       </c>
       <c r="H224" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.5074034064078763</v>
       </c>
     </row>
@@ -8252,19 +8298,19 @@
         <v>75</v>
       </c>
       <c r="E225" s="3">
-        <f>$D225*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>5.9532896481683926</v>
       </c>
       <c r="F225" s="3">
-        <f>$D225*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>69.046710351831607</v>
       </c>
       <c r="G225" s="2">
-        <f>_xlfn.CHISQ.TEST(B225:C225,E225:F225)</f>
+        <f t="shared" si="14"/>
         <v>0.40408485825803175</v>
       </c>
       <c r="H225" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-1.9532896481683926</v>
       </c>
     </row>
@@ -8282,19 +8328,19 @@
         <v>190</v>
       </c>
       <c r="E226" s="3">
-        <f>$D226*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>15.081667108693262</v>
       </c>
       <c r="F226" s="3">
-        <f>$D226*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>174.91833289130673</v>
       </c>
       <c r="G226" s="2">
-        <f>_xlfn.CHISQ.TEST(B226:C226,E226:F226)</f>
+        <f t="shared" si="14"/>
         <v>0.40822122358971646</v>
       </c>
       <c r="H226" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-3.0816671086932619</v>
       </c>
     </row>
@@ -8312,19 +8358,19 @@
         <v>24</v>
       </c>
       <c r="E227" s="3">
-        <f>$D227*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>1.9050526874138858</v>
       </c>
       <c r="F227" s="3">
-        <f>$D227*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>22.094947312586115</v>
       </c>
       <c r="G227" s="2">
-        <f>_xlfn.CHISQ.TEST(B227:C227,E227:F227)</f>
+        <f t="shared" si="14"/>
         <v>0.40835216318646034</v>
       </c>
       <c r="H227" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.0949473125861142</v>
       </c>
     </row>
@@ -8342,19 +8388,19 @@
         <v>281</v>
       </c>
       <c r="E228" s="3">
-        <f>$D228*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>22.304991881804245</v>
       </c>
       <c r="F228" s="3">
-        <f>$D228*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>258.69500811819574</v>
       </c>
       <c r="G228" s="2">
-        <f>_xlfn.CHISQ.TEST(B228:C228,E228:F228)</f>
+        <f t="shared" si="14"/>
         <v>0.41484038606675744</v>
       </c>
       <c r="H228" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>3.695008118195755</v>
       </c>
     </row>
@@ -8372,19 +8418,19 @@
         <v>55</v>
       </c>
       <c r="E229" s="3">
-        <f>$D229*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>4.3657457419901551</v>
       </c>
       <c r="F229" s="3">
-        <f>$D229*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>50.634254258009847</v>
       </c>
       <c r="G229" s="2">
-        <f>_xlfn.CHISQ.TEST(B229:C229,E229:F229)</f>
+        <f t="shared" si="14"/>
         <v>0.41497355402666025</v>
       </c>
       <c r="H229" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.6342542580098449</v>
       </c>
     </row>
@@ -8402,19 +8448,19 @@
         <v>66</v>
       </c>
       <c r="E230" s="3">
-        <f>$D230*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>5.2388948903881856</v>
       </c>
       <c r="F230" s="3">
-        <f>$D230*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>60.761105109611812</v>
       </c>
       <c r="G230" s="2">
-        <f>_xlfn.CHISQ.TEST(B230:C230,E230:F230)</f>
+        <f t="shared" si="14"/>
         <v>0.42260615232738102</v>
       </c>
       <c r="H230" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.7611051096118144</v>
       </c>
     </row>
@@ -8432,19 +8478,19 @@
         <v>6</v>
       </c>
       <c r="E231" s="3">
-        <f>$D231*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>0.47626317185347145</v>
       </c>
       <c r="F231" s="3">
-        <f>$D231*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>5.5237368281465287</v>
       </c>
       <c r="G231" s="2">
-        <f>_xlfn.CHISQ.TEST(B231:C231,E231:F231)</f>
+        <f t="shared" si="14"/>
         <v>0.42897346797358032</v>
       </c>
       <c r="H231" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>0.52373682814652855</v>
       </c>
     </row>
@@ -8462,19 +8508,19 @@
         <v>6</v>
       </c>
       <c r="E232" s="3">
-        <f>$D232*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>0.47626317185347145</v>
       </c>
       <c r="F232" s="3">
-        <f>$D232*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>5.5237368281465287</v>
       </c>
       <c r="G232" s="2">
-        <f>_xlfn.CHISQ.TEST(B232:C232,E232:F232)</f>
+        <f t="shared" si="14"/>
         <v>0.42897346797358032</v>
       </c>
       <c r="H232" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>0.52373682814652855</v>
       </c>
     </row>
@@ -8492,19 +8538,19 @@
         <v>6</v>
       </c>
       <c r="E233" s="3">
-        <f>$D233*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>0.47626317185347145</v>
       </c>
       <c r="F233" s="3">
-        <f>$D233*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>5.5237368281465287</v>
       </c>
       <c r="G233" s="2">
-        <f>_xlfn.CHISQ.TEST(B233:C233,E233:F233)</f>
+        <f t="shared" si="14"/>
         <v>0.42897346797358032</v>
       </c>
       <c r="H233" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>0.52373682814652855</v>
       </c>
     </row>
@@ -8522,19 +8568,19 @@
         <v>202</v>
       </c>
       <c r="E234" s="3">
-        <f>$D234*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>16.034193452400203</v>
       </c>
       <c r="F234" s="3">
-        <f>$D234*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>185.96580654759978</v>
       </c>
       <c r="G234" s="2">
-        <f>_xlfn.CHISQ.TEST(B234:C234,E234:F234)</f>
+        <f t="shared" si="14"/>
         <v>0.42968524745398018</v>
       </c>
       <c r="H234" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-3.0341934524002028</v>
       </c>
     </row>
@@ -8552,19 +8598,19 @@
         <v>939</v>
       </c>
       <c r="E235" s="3">
-        <f>$D235*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>74.53518639506828</v>
       </c>
       <c r="F235" s="3">
-        <f>$D235*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>864.46481360493169</v>
       </c>
       <c r="G235" s="2">
-        <f>_xlfn.CHISQ.TEST(B235:C235,E235:F235)</f>
+        <f t="shared" si="14"/>
         <v>0.43015507296435562</v>
       </c>
       <c r="H235" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-6.5351863950682798</v>
       </c>
     </row>
@@ -8582,19 +8628,19 @@
         <v>45</v>
       </c>
       <c r="E236" s="3">
-        <f>$D236*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>3.5719737889010355</v>
       </c>
       <c r="F236" s="3">
-        <f>$D236*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>41.428026211098967</v>
       </c>
       <c r="G236" s="2">
-        <f>_xlfn.CHISQ.TEST(B236:C236,E236:F236)</f>
+        <f t="shared" si="14"/>
         <v>0.43099918066891529</v>
       </c>
       <c r="H236" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.4280262110989645</v>
       </c>
     </row>
@@ -8612,19 +8658,19 @@
         <v>133</v>
       </c>
       <c r="E237" s="3">
-        <f>$D237*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>10.557166976085282</v>
       </c>
       <c r="F237" s="3">
-        <f>$D237*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>122.44283302391472</v>
       </c>
       <c r="G237" s="2">
-        <f>_xlfn.CHISQ.TEST(B237:C237,E237:F237)</f>
+        <f t="shared" si="14"/>
         <v>0.43329095792655087</v>
       </c>
       <c r="H237" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.4428330239147176</v>
       </c>
     </row>
@@ -8642,19 +8688,19 @@
         <v>988</v>
       </c>
       <c r="E238" s="3">
-        <f>$D238*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>78.424668965204958</v>
       </c>
       <c r="F238" s="3">
-        <f>$D238*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>909.575331034795</v>
       </c>
       <c r="G238" s="2">
-        <f>_xlfn.CHISQ.TEST(B238:C238,E238:F238)</f>
+        <f t="shared" si="14"/>
         <v>0.43902621982757062</v>
       </c>
       <c r="H238" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>6.5753310347950418</v>
       </c>
     </row>
@@ -8672,19 +8718,19 @@
         <v>15</v>
       </c>
       <c r="E239" s="3">
-        <f>$D239*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>1.1906579296336786</v>
       </c>
       <c r="F239" s="3">
-        <f>$D239*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>13.809342070366322</v>
       </c>
       <c r="G239" s="2">
-        <f>_xlfn.CHISQ.TEST(B239:C239,E239:F239)</f>
+        <f t="shared" si="14"/>
         <v>0.43950315269545054</v>
       </c>
       <c r="H239" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>0.80934207036632144</v>
       </c>
     </row>
@@ -8702,19 +8748,19 @@
         <v>237</v>
       </c>
       <c r="E240" s="3">
-        <f>$D240*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>18.812395288212119</v>
       </c>
       <c r="F240" s="3">
-        <f>$D240*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>218.18760471178788</v>
       </c>
       <c r="G240" s="2">
-        <f>_xlfn.CHISQ.TEST(B240:C240,E240:F240)</f>
+        <f t="shared" si="14"/>
         <v>0.44370487021971061</v>
       </c>
       <c r="H240" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>3.1876047117878805</v>
       </c>
     </row>
@@ -8732,19 +8778,19 @@
         <v>405</v>
       </c>
       <c r="E241" s="3">
-        <f>$D241*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>32.14776410010932</v>
       </c>
       <c r="F241" s="3">
-        <f>$D241*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>372.85223589989067</v>
       </c>
       <c r="G241" s="2">
-        <f>_xlfn.CHISQ.TEST(B241:C241,E241:F241)</f>
+        <f t="shared" si="14"/>
         <v>0.44580568906821699</v>
       </c>
       <c r="H241" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-4.1477641001093204</v>
       </c>
     </row>
@@ -8762,19 +8808,19 @@
         <v>130</v>
       </c>
       <c r="E242" s="3">
-        <f>$D242*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>10.319035390158547</v>
       </c>
       <c r="F242" s="3">
-        <f>$D242*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>119.68096460984145</v>
       </c>
       <c r="G242" s="2">
-        <f>_xlfn.CHISQ.TEST(B242:C242,E242:F242)</f>
+        <f t="shared" si="14"/>
         <v>0.45181244822560518</v>
       </c>
       <c r="H242" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-2.3190353901585468</v>
       </c>
     </row>
@@ -8792,19 +8838,19 @@
         <v>25</v>
       </c>
       <c r="E243" s="3">
-        <f>$D243*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>1.9844298827227975</v>
       </c>
       <c r="F243" s="3">
-        <f>$D243*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>23.015570117277203</v>
       </c>
       <c r="G243" s="2">
-        <f>_xlfn.CHISQ.TEST(B243:C243,E243:F243)</f>
+        <f t="shared" si="14"/>
         <v>0.45243280284461013</v>
       </c>
       <c r="H243" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.0155701172772025</v>
       </c>
     </row>
@@ -8822,19 +8868,19 @@
         <v>41</v>
       </c>
       <c r="E244" s="3">
-        <f>$D244*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>3.254465007665388</v>
       </c>
       <c r="F244" s="3">
-        <f>$D244*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>37.745534992334612</v>
       </c>
       <c r="G244" s="2">
-        <f>_xlfn.CHISQ.TEST(B244:C244,E244:F244)</f>
+        <f t="shared" si="14"/>
         <v>0.46861600259377278</v>
       </c>
       <c r="H244" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-1.254465007665388</v>
       </c>
     </row>
@@ -8852,19 +8898,19 @@
         <v>68</v>
       </c>
       <c r="E245" s="3">
-        <f>$D245*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>5.397649281006009</v>
       </c>
       <c r="F245" s="3">
-        <f>$D245*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>62.602350718993989</v>
       </c>
       <c r="G245" s="2">
-        <f>_xlfn.CHISQ.TEST(B245:C245,E245:F245)</f>
+        <f t="shared" si="14"/>
         <v>0.47225771610276412</v>
       </c>
       <c r="H245" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.602350718993991</v>
       </c>
     </row>
@@ -8882,19 +8928,19 @@
         <v>71</v>
       </c>
       <c r="E246" s="3">
-        <f>$D246*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>5.6357808669327447</v>
       </c>
       <c r="F246" s="3">
-        <f>$D246*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>65.364219133067252</v>
       </c>
       <c r="G246" s="2">
-        <f>_xlfn.CHISQ.TEST(B246:C246,E246:F246)</f>
+        <f t="shared" si="14"/>
         <v>0.47267291258417532</v>
       </c>
       <c r="H246" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-1.6357808669327447</v>
       </c>
     </row>
@@ -8912,19 +8958,19 @@
         <v>124</v>
       </c>
       <c r="E247" s="3">
-        <f>$D247*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>9.8427722183050754</v>
       </c>
       <c r="F247" s="3">
-        <f>$D247*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>114.15722778169493</v>
       </c>
       <c r="G247" s="2">
-        <f>_xlfn.CHISQ.TEST(B247:C247,E247:F247)</f>
+        <f t="shared" si="14"/>
         <v>0.47360096383485611</v>
       </c>
       <c r="H247" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.1572277816949246</v>
       </c>
     </row>
@@ -8942,19 +8988,19 @@
         <v>1373</v>
       </c>
       <c r="E248" s="3">
-        <f>$D248*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>108.98488915913605</v>
       </c>
       <c r="F248" s="3">
-        <f>$D248*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>1264.0151108408641</v>
       </c>
       <c r="G248" s="2">
-        <f>_xlfn.CHISQ.TEST(B248:C248,E248:F248)</f>
+        <f t="shared" si="14"/>
         <v>0.48371338825649535</v>
       </c>
       <c r="H248" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>7.0151108408639544</v>
       </c>
     </row>
@@ -8972,19 +9018,19 @@
         <v>91</v>
       </c>
       <c r="E249" s="3">
-        <f>$D249*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>7.2233247731109831</v>
       </c>
       <c r="F249" s="3">
-        <f>$D249*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>83.776675226889012</v>
       </c>
       <c r="G249" s="2">
-        <f>_xlfn.CHISQ.TEST(B249:C249,E249:F249)</f>
+        <f t="shared" si="14"/>
         <v>0.49084384403681924</v>
       </c>
       <c r="H249" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.7766752268890169</v>
       </c>
     </row>
@@ -9002,19 +9048,19 @@
         <v>70</v>
       </c>
       <c r="E250" s="3">
-        <f>$D250*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>5.5564036716238334</v>
       </c>
       <c r="F250" s="3">
-        <f>$D250*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>64.443596328376174</v>
       </c>
       <c r="G250" s="2">
-        <f>_xlfn.CHISQ.TEST(B250:C250,E250:F250)</f>
+        <f t="shared" si="14"/>
         <v>0.49135695645565958</v>
       </c>
       <c r="H250" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-1.5564036716238334</v>
       </c>
     </row>
@@ -9032,19 +9078,19 @@
         <v>24</v>
       </c>
       <c r="E251" s="3">
-        <f>$D251*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>1.9050526874138858</v>
       </c>
       <c r="F251" s="3">
-        <f>$D251*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>22.094947312586115</v>
       </c>
       <c r="G251" s="2">
-        <f>_xlfn.CHISQ.TEST(B251:C251,E251:F251)</f>
+        <f t="shared" si="14"/>
         <v>0.49434961901069485</v>
       </c>
       <c r="H251" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-0.90505268741388578</v>
       </c>
     </row>
@@ -9062,19 +9108,19 @@
         <v>24</v>
       </c>
       <c r="E252" s="3">
-        <f>$D252*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>1.9050526874138858</v>
       </c>
       <c r="F252" s="3">
-        <f>$D252*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>22.094947312586115</v>
       </c>
       <c r="G252" s="2">
-        <f>_xlfn.CHISQ.TEST(B252:C252,E252:F252)</f>
+        <f t="shared" si="14"/>
         <v>0.49434961901069485</v>
       </c>
       <c r="H252" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-0.90505268741388578</v>
       </c>
     </row>
@@ -9092,19 +9138,19 @@
         <v>26</v>
       </c>
       <c r="E253" s="3">
-        <f>$D253*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>2.0638070780317093</v>
       </c>
       <c r="F253" s="3">
-        <f>$D253*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>23.936192921968292</v>
       </c>
       <c r="G253" s="2">
-        <f>_xlfn.CHISQ.TEST(B253:C253,E253:F253)</f>
+        <f t="shared" si="14"/>
         <v>0.49701881296531047</v>
       </c>
       <c r="H253" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>0.93619292196829074</v>
       </c>
     </row>
@@ -9122,19 +9168,19 @@
         <v>69</v>
       </c>
       <c r="E254" s="3">
-        <f>$D254*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>5.4770264763149212</v>
       </c>
       <c r="F254" s="3">
-        <f>$D254*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>63.522973523685081</v>
       </c>
       <c r="G254" s="2">
-        <f>_xlfn.CHISQ.TEST(B254:C254,E254:F254)</f>
+        <f t="shared" si="14"/>
         <v>0.49762382164335628</v>
       </c>
       <c r="H254" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>1.5229735236850788</v>
       </c>
     </row>
@@ -9152,19 +9198,19 @@
         <v>160</v>
       </c>
       <c r="E255" s="3">
-        <f>$D255*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>12.700351249425905</v>
       </c>
       <c r="F255" s="3">
-        <f>$D255*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>147.29964875057411</v>
       </c>
       <c r="G255" s="2">
-        <f>_xlfn.CHISQ.TEST(B255:C255,E255:F255)</f>
+        <f t="shared" si="14"/>
         <v>0.50124524997158226</v>
       </c>
       <c r="H255" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.2996487505740948</v>
       </c>
     </row>
@@ -9182,19 +9228,19 @@
         <v>242</v>
       </c>
       <c r="E256" s="3">
-        <f>$D256*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>19.20928126475668</v>
       </c>
       <c r="F256" s="3">
-        <f>$D256*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>222.79071873524333</v>
       </c>
       <c r="G256" s="2">
-        <f>_xlfn.CHISQ.TEST(B256:C256,E256:F256)</f>
+        <f t="shared" si="14"/>
         <v>0.50693337758120016</v>
       </c>
       <c r="H256" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>2.7907187352433205</v>
       </c>
     </row>
@@ -9212,19 +9258,19 @@
         <v>781</v>
       </c>
       <c r="E257" s="3">
-        <f>$D257*B$363/$D$363</f>
+        <f t="shared" si="12"/>
         <v>61.993589536260195</v>
       </c>
       <c r="F257" s="3">
-        <f>$D257*C$363/$D$363</f>
+        <f t="shared" si="13"/>
         <v>719.00641046373983</v>
       </c>
       <c r="G257" s="2">
-        <f>_xlfn.CHISQ.TEST(B257:C257,E257:F257)</f>
+        <f t="shared" si="14"/>
         <v>0.5075273753982561</v>
       </c>
       <c r="H257" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>5.0064104637398046</v>
       </c>
     </row>
@@ -9242,19 +9288,19 @@
         <v>23</v>
       </c>
       <c r="E258" s="3">
-        <f>$D258*B$363/$D$363</f>
+        <f t="shared" ref="E258:E321" si="16">$D258*B$363/$D$363</f>
         <v>1.8256754921049738</v>
       </c>
       <c r="F258" s="3">
-        <f>$D258*C$363/$D$363</f>
+        <f t="shared" ref="F258:F321" si="17">$D258*C$363/$D$363</f>
         <v>21.174324507895026</v>
       </c>
       <c r="G258" s="2">
-        <f>_xlfn.CHISQ.TEST(B258:C258,E258:F258)</f>
+        <f t="shared" ref="G258:G321" si="18">_xlfn.CHISQ.TEST(B258:C258,E258:F258)</f>
         <v>0.52420384608289572</v>
       </c>
       <c r="H258" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="15"/>
         <v>-0.82567549210497382</v>
       </c>
     </row>
@@ -9272,19 +9318,19 @@
         <v>185</v>
       </c>
       <c r="E259" s="3">
-        <f>$D259*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>14.684781132148702</v>
       </c>
       <c r="F259" s="3">
-        <f>$D259*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>170.31521886785129</v>
       </c>
       <c r="G259" s="2">
-        <f>_xlfn.CHISQ.TEST(B259:C259,E259:F259)</f>
+        <f t="shared" si="18"/>
         <v>0.52890629464060324</v>
       </c>
       <c r="H259" s="2">
-        <f t="shared" ref="H259:H322" si="4">B259-E259</f>
+        <f t="shared" ref="H259:H322" si="19">B259-E259</f>
         <v>2.3152188678512982</v>
       </c>
     </row>
@@ -9302,19 +9348,19 @@
         <v>261</v>
       </c>
       <c r="E260" s="3">
-        <f>$D260*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>20.717447975626008</v>
       </c>
       <c r="F260" s="3">
-        <f>$D260*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>240.28255202437398</v>
       </c>
       <c r="G260" s="2">
-        <f>_xlfn.CHISQ.TEST(B260:C260,E260:F260)</f>
+        <f t="shared" si="18"/>
         <v>0.53378941809327318</v>
       </c>
       <c r="H260" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-2.7174479756260084</v>
       </c>
     </row>
@@ -9332,19 +9378,19 @@
         <v>7</v>
       </c>
       <c r="E261" s="3">
-        <f>$D261*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>0.5556403671623833</v>
       </c>
       <c r="F261" s="3">
-        <f>$D261*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>6.4443596328376165</v>
       </c>
       <c r="G261" s="2">
-        <f>_xlfn.CHISQ.TEST(B261:C261,E261:F261)</f>
+        <f t="shared" si="18"/>
         <v>0.53440650130442868</v>
       </c>
       <c r="H261" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.4443596328376167</v>
       </c>
     </row>
@@ -9362,19 +9408,19 @@
         <v>7</v>
       </c>
       <c r="E262" s="3">
-        <f>$D262*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>0.5556403671623833</v>
       </c>
       <c r="F262" s="3">
-        <f>$D262*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>6.4443596328376165</v>
       </c>
       <c r="G262" s="2">
-        <f>_xlfn.CHISQ.TEST(B262:C262,E262:F262)</f>
+        <f t="shared" si="18"/>
         <v>0.53440650130442868</v>
       </c>
       <c r="H262" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.4443596328376167</v>
       </c>
     </row>
@@ -9392,19 +9438,19 @@
         <v>7</v>
       </c>
       <c r="E263" s="3">
-        <f>$D263*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>0.5556403671623833</v>
       </c>
       <c r="F263" s="3">
-        <f>$D263*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>6.4443596328376165</v>
       </c>
       <c r="G263" s="2">
-        <f>_xlfn.CHISQ.TEST(B263:C263,E263:F263)</f>
+        <f t="shared" si="18"/>
         <v>0.53440650130442868</v>
       </c>
       <c r="H263" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.4443596328376167</v>
       </c>
     </row>
@@ -9422,19 +9468,19 @@
         <v>268</v>
       </c>
       <c r="E264" s="3">
-        <f>$D264*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>21.273088342788391</v>
       </c>
       <c r="F264" s="3">
-        <f>$D264*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>246.72691165721162</v>
       </c>
       <c r="G264" s="2">
-        <f>_xlfn.CHISQ.TEST(B264:C264,E264:F264)</f>
+        <f t="shared" si="18"/>
         <v>0.53776885945847819</v>
       </c>
       <c r="H264" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2.726911657211609</v>
       </c>
     </row>
@@ -9452,19 +9498,19 @@
         <v>27</v>
       </c>
       <c r="E265" s="3">
-        <f>$D265*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>2.1431842733406214</v>
       </c>
       <c r="F265" s="3">
-        <f>$D265*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>24.856815726659377</v>
       </c>
       <c r="G265" s="2">
-        <f>_xlfn.CHISQ.TEST(B265:C265,E265:F265)</f>
+        <f t="shared" si="18"/>
         <v>0.54187392811426061</v>
       </c>
       <c r="H265" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.85681572665937855</v>
       </c>
     </row>
@@ -9482,19 +9528,19 @@
         <v>38</v>
       </c>
       <c r="E266" s="3">
-        <f>$D266*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>3.0163334217386524</v>
       </c>
       <c r="F266" s="3">
-        <f>$D266*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>34.983666578261349</v>
       </c>
       <c r="G266" s="2">
-        <f>_xlfn.CHISQ.TEST(B266:C266,E266:F266)</f>
+        <f t="shared" si="18"/>
         <v>0.54193080941517646</v>
       </c>
       <c r="H266" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.0163334217386524</v>
       </c>
     </row>
@@ -9512,19 +9558,19 @@
         <v>82</v>
       </c>
       <c r="E267" s="3">
-        <f>$D267*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>6.5089300153307761</v>
       </c>
       <c r="F267" s="3">
-        <f>$D267*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>75.491069984669224</v>
       </c>
       <c r="G267" s="2">
-        <f>_xlfn.CHISQ.TEST(B267:C267,E267:F267)</f>
+        <f t="shared" si="18"/>
         <v>0.54244536366410034</v>
       </c>
       <c r="H267" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.4910699846692239</v>
       </c>
     </row>
@@ -9542,19 +9588,19 @@
         <v>192</v>
       </c>
       <c r="E268" s="3">
-        <f>$D268*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>15.240421499311086</v>
       </c>
       <c r="F268" s="3">
-        <f>$D268*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>176.75957850068892</v>
       </c>
       <c r="G268" s="2">
-        <f>_xlfn.CHISQ.TEST(B268:C268,E268:F268)</f>
+        <f t="shared" si="18"/>
         <v>0.5497579792825904</v>
       </c>
       <c r="H268" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-2.2404214993110863</v>
       </c>
     </row>
@@ -9572,19 +9618,19 @@
         <v>137</v>
       </c>
       <c r="E269" s="3">
-        <f>$D269*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>10.874675757320931</v>
       </c>
       <c r="F269" s="3">
-        <f>$D269*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>126.12532424267907</v>
       </c>
       <c r="G269" s="2">
-        <f>_xlfn.CHISQ.TEST(B269:C269,E269:F269)</f>
+        <f t="shared" si="18"/>
         <v>0.55352606246950353</v>
       </c>
       <c r="H269" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.8746757573209312</v>
       </c>
     </row>
@@ -9602,19 +9648,19 @@
         <v>175</v>
       </c>
       <c r="E270" s="3">
-        <f>$D270*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>13.891009179059584</v>
       </c>
       <c r="F270" s="3">
-        <f>$D270*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>161.10899082094042</v>
       </c>
       <c r="G270" s="2">
-        <f>_xlfn.CHISQ.TEST(B270:C270,E270:F270)</f>
+        <f t="shared" si="18"/>
         <v>0.55535920035444963</v>
       </c>
       <c r="H270" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2.1089908209404165</v>
       </c>
     </row>
@@ -9632,19 +9678,19 @@
         <v>22</v>
       </c>
       <c r="E271" s="3">
-        <f>$D271*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>1.7462982967960619</v>
       </c>
       <c r="F271" s="3">
-        <f>$D271*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>20.253701703203937</v>
       </c>
       <c r="G271" s="2">
-        <f>_xlfn.CHISQ.TEST(B271:C271,E271:F271)</f>
+        <f t="shared" si="18"/>
         <v>0.55613680595223092</v>
       </c>
       <c r="H271" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.74629829679606186</v>
       </c>
     </row>
@@ -9662,19 +9708,19 @@
         <v>109</v>
       </c>
       <c r="E272" s="3">
-        <f>$D272*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>8.6521142886713971</v>
       </c>
       <c r="F272" s="3">
-        <f>$D272*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>100.3478857113286</v>
       </c>
       <c r="G272" s="2">
-        <f>_xlfn.CHISQ.TEST(B272:C272,E272:F272)</f>
+        <f t="shared" si="18"/>
         <v>0.55829203529381</v>
       </c>
       <c r="H272" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.6521142886713971</v>
       </c>
     </row>
@@ -9692,19 +9738,19 @@
         <v>95</v>
       </c>
       <c r="E273" s="3">
-        <f>$D273*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>7.5408335543466309</v>
       </c>
       <c r="F273" s="3">
-        <f>$D273*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>87.459166445653366</v>
       </c>
       <c r="G273" s="2">
-        <f>_xlfn.CHISQ.TEST(B273:C273,E273:F273)</f>
+        <f t="shared" si="18"/>
         <v>0.55868417684779192</v>
       </c>
       <c r="H273" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.5408335543466309</v>
       </c>
     </row>
@@ -9722,19 +9768,19 @@
         <v>1449</v>
       </c>
       <c r="E274" s="3">
-        <f>$D274*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>115.01755600261335</v>
       </c>
       <c r="F274" s="3">
-        <f>$D274*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>1333.9824439973866</v>
       </c>
       <c r="G274" s="2">
-        <f>_xlfn.CHISQ.TEST(B274:C274,E274:F274)</f>
+        <f t="shared" si="18"/>
         <v>0.55869139993374528</v>
       </c>
       <c r="H274" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-6.0175560026133468</v>
       </c>
     </row>
@@ -9752,19 +9798,19 @@
         <v>590</v>
       </c>
       <c r="E275" s="3">
-        <f>$D275*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>46.83254523225802</v>
       </c>
       <c r="F275" s="3">
-        <f>$D275*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>543.16745476774202</v>
       </c>
       <c r="G275" s="2">
-        <f>_xlfn.CHISQ.TEST(B275:C275,E275:F275)</f>
+        <f t="shared" si="18"/>
         <v>0.55943767672084765</v>
       </c>
       <c r="H275" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-3.8325452322580205</v>
       </c>
     </row>
@@ -9782,19 +9828,19 @@
         <v>150</v>
       </c>
       <c r="E276" s="3">
-        <f>$D276*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>11.906579296336785</v>
       </c>
       <c r="F276" s="3">
-        <f>$D276*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>138.09342070366321</v>
       </c>
       <c r="G276" s="2">
-        <f>_xlfn.CHISQ.TEST(B276:C276,E276:F276)</f>
+        <f t="shared" si="18"/>
         <v>0.5647065954841981</v>
       </c>
       <c r="H276" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.9065792963367851</v>
       </c>
     </row>
@@ -9812,19 +9858,19 @@
         <v>108</v>
       </c>
       <c r="E277" s="3">
-        <f>$D277*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>8.5727370933624858</v>
       </c>
       <c r="F277" s="3">
-        <f>$D277*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>99.427262906637509</v>
       </c>
       <c r="G277" s="2">
-        <f>_xlfn.CHISQ.TEST(B277:C277,E277:F277)</f>
+        <f t="shared" si="18"/>
         <v>0.57559597438664689</v>
       </c>
       <c r="H277" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.5727370933624858</v>
       </c>
     </row>
@@ -9842,19 +9888,19 @@
         <v>21</v>
       </c>
       <c r="E278" s="3">
-        <f>$D278*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>1.6669211014871499</v>
       </c>
       <c r="F278" s="3">
-        <f>$D278*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>19.333078898512849</v>
       </c>
       <c r="G278" s="2">
-        <f>_xlfn.CHISQ.TEST(B278:C278,E278:F278)</f>
+        <f t="shared" si="18"/>
         <v>0.59032572267491945</v>
       </c>
       <c r="H278" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.66692110148714989</v>
       </c>
     </row>
@@ -9872,19 +9918,19 @@
         <v>36</v>
       </c>
       <c r="E279" s="3">
-        <f>$D279*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>2.8575790311208284</v>
       </c>
       <c r="F279" s="3">
-        <f>$D279*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>33.142420968879172</v>
       </c>
       <c r="G279" s="2">
-        <f>_xlfn.CHISQ.TEST(B279:C279,E279:F279)</f>
+        <f t="shared" si="18"/>
         <v>0.59699258466300531</v>
       </c>
       <c r="H279" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.85757903112082845</v>
       </c>
     </row>
@@ -9902,19 +9948,19 @@
         <v>188</v>
       </c>
       <c r="E280" s="3">
-        <f>$D280*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>14.922912718075438</v>
       </c>
       <c r="F280" s="3">
-        <f>$D280*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>173.07708728192455</v>
       </c>
       <c r="G280" s="2">
-        <f>_xlfn.CHISQ.TEST(B280:C280,E280:F280)</f>
+        <f t="shared" si="18"/>
         <v>0.60390693226617942</v>
       </c>
       <c r="H280" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.9229127180754375</v>
       </c>
     </row>
@@ -9932,19 +9978,19 @@
         <v>62</v>
       </c>
       <c r="E281" s="3">
-        <f>$D281*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>4.9213861091525377</v>
       </c>
       <c r="F281" s="3">
-        <f>$D281*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>57.078613890847464</v>
       </c>
       <c r="G281" s="2">
-        <f>_xlfn.CHISQ.TEST(B281:C281,E281:F281)</f>
+        <f t="shared" si="18"/>
         <v>0.61234034071653709</v>
       </c>
       <c r="H281" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.0786138908474623</v>
       </c>
     </row>
@@ -9962,19 +10008,19 @@
         <v>62</v>
       </c>
       <c r="E282" s="3">
-        <f>$D282*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>4.9213861091525377</v>
       </c>
       <c r="F282" s="3">
-        <f>$D282*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>57.078613890847464</v>
       </c>
       <c r="G282" s="2">
-        <f>_xlfn.CHISQ.TEST(B282:C282,E282:F282)</f>
+        <f t="shared" si="18"/>
         <v>0.61234034071653709</v>
       </c>
       <c r="H282" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.0786138908474623</v>
       </c>
     </row>
@@ -9992,19 +10038,19 @@
         <v>64</v>
       </c>
       <c r="E283" s="3">
-        <f>$D283*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>5.0801404997703621</v>
       </c>
       <c r="F283" s="3">
-        <f>$D283*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>58.919859500229641</v>
       </c>
       <c r="G283" s="2">
-        <f>_xlfn.CHISQ.TEST(B283:C283,E283:F283)</f>
+        <f t="shared" si="18"/>
         <v>0.61745470216488152</v>
       </c>
       <c r="H283" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.0801404997703621</v>
       </c>
     </row>
@@ -10022,19 +10068,19 @@
         <v>18</v>
       </c>
       <c r="E284" s="3">
-        <f>$D284*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>1.4287895155604142</v>
       </c>
       <c r="F284" s="3">
-        <f>$D284*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>16.571210484439586</v>
       </c>
       <c r="G284" s="2">
-        <f>_xlfn.CHISQ.TEST(B284:C284,E284:F284)</f>
+        <f t="shared" si="18"/>
         <v>0.61845022825079754</v>
       </c>
       <c r="H284" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.57121048443958578</v>
       </c>
     </row>
@@ -10052,19 +10098,19 @@
         <v>35</v>
       </c>
       <c r="E285" s="3">
-        <f>$D285*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>2.7782018358119167</v>
       </c>
       <c r="F285" s="3">
-        <f>$D285*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>32.221798164188087</v>
       </c>
       <c r="G285" s="2">
-        <f>_xlfn.CHISQ.TEST(B285:C285,E285:F285)</f>
+        <f t="shared" si="18"/>
         <v>0.62654390020042872</v>
       </c>
       <c r="H285" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.77820183581191671</v>
       </c>
     </row>
@@ -10082,19 +10128,19 @@
         <v>20</v>
       </c>
       <c r="E286" s="3">
-        <f>$D286*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>1.5875439061782382</v>
       </c>
       <c r="F286" s="3">
-        <f>$D286*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>18.412456093821763</v>
       </c>
       <c r="G286" s="2">
-        <f>_xlfn.CHISQ.TEST(B286:C286,E286:F286)</f>
+        <f t="shared" si="18"/>
         <v>0.62696691198675492</v>
       </c>
       <c r="H286" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.58754390617823815</v>
       </c>
     </row>
@@ -10112,19 +10158,19 @@
         <v>40</v>
       </c>
       <c r="E287" s="3">
-        <f>$D287*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>3.1750878123564763</v>
       </c>
       <c r="F287" s="3">
-        <f>$D287*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>36.824912187643527</v>
       </c>
       <c r="G287" s="2">
-        <f>_xlfn.CHISQ.TEST(B287:C287,E287:F287)</f>
+        <f t="shared" si="18"/>
         <v>0.62945737290034631</v>
       </c>
       <c r="H287" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.8249121876435237</v>
       </c>
     </row>
@@ -10142,19 +10188,19 @@
         <v>8</v>
       </c>
       <c r="E288" s="3">
-        <f>$D288*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>0.63501756247129526</v>
       </c>
       <c r="F288" s="3">
-        <f>$D288*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>7.3649824375287052</v>
       </c>
       <c r="G288" s="2">
-        <f>_xlfn.CHISQ.TEST(B288:C288,E288:F288)</f>
+        <f t="shared" si="18"/>
         <v>0.6331118887430125</v>
       </c>
       <c r="H288" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.36498243752870474</v>
       </c>
     </row>
@@ -10172,19 +10218,19 @@
         <v>8</v>
       </c>
       <c r="E289" s="3">
-        <f>$D289*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>0.63501756247129526</v>
       </c>
       <c r="F289" s="3">
-        <f>$D289*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>7.3649824375287052</v>
       </c>
       <c r="G289" s="2">
-        <f>_xlfn.CHISQ.TEST(B289:C289,E289:F289)</f>
+        <f t="shared" si="18"/>
         <v>0.6331118887430125</v>
       </c>
       <c r="H289" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.36498243752870474</v>
       </c>
     </row>
@@ -10202,19 +10248,19 @@
         <v>8</v>
       </c>
       <c r="E290" s="3">
-        <f>$D290*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>0.63501756247129526</v>
       </c>
       <c r="F290" s="3">
-        <f>$D290*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>7.3649824375287052</v>
       </c>
       <c r="G290" s="2">
-        <f>_xlfn.CHISQ.TEST(B290:C290,E290:F290)</f>
+        <f t="shared" si="18"/>
         <v>0.6331118887430125</v>
       </c>
       <c r="H290" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.36498243752870474</v>
       </c>
     </row>
@@ -10232,19 +10278,19 @@
         <v>63</v>
       </c>
       <c r="E291" s="3">
-        <f>$D291*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>5.0007633044614499</v>
       </c>
       <c r="F291" s="3">
-        <f>$D291*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>57.999236695538549</v>
       </c>
       <c r="G291" s="2">
-        <f>_xlfn.CHISQ.TEST(B291:C291,E291:F291)</f>
+        <f t="shared" si="18"/>
         <v>0.64142785515389766</v>
       </c>
       <c r="H291" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.9992366955385501</v>
       </c>
     </row>
@@ -10262,19 +10308,19 @@
         <v>170</v>
       </c>
       <c r="E292" s="3">
-        <f>$D292*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>13.494123202515024</v>
       </c>
       <c r="F292" s="3">
-        <f>$D292*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>156.50587679748497</v>
       </c>
       <c r="G292" s="2">
-        <f>_xlfn.CHISQ.TEST(B292:C292,E292:F292)</f>
+        <f t="shared" si="18"/>
         <v>0.66920142328490262</v>
       </c>
       <c r="H292" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.5058767974849765</v>
       </c>
     </row>
@@ -10292,19 +10338,19 @@
         <v>182</v>
       </c>
       <c r="E293" s="3">
-        <f>$D293*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>14.446649546221966</v>
       </c>
       <c r="F293" s="3">
-        <f>$D293*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>167.55335045377802</v>
       </c>
       <c r="G293" s="2">
-        <f>_xlfn.CHISQ.TEST(B293:C293,E293:F293)</f>
+        <f t="shared" si="18"/>
         <v>0.6701540047412724</v>
       </c>
       <c r="H293" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.5533504537780338</v>
       </c>
     </row>
@@ -10322,19 +10368,19 @@
         <v>19</v>
       </c>
       <c r="E294" s="3">
-        <f>$D294*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>1.5081667108693262</v>
       </c>
       <c r="F294" s="3">
-        <f>$D294*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>17.491833289130675</v>
       </c>
       <c r="G294" s="2">
-        <f>_xlfn.CHISQ.TEST(B294:C294,E294:F294)</f>
+        <f t="shared" si="18"/>
         <v>0.67638590001540533</v>
       </c>
       <c r="H294" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.49183328913067381</v>
       </c>
     </row>
@@ -10352,19 +10398,19 @@
         <v>5382</v>
       </c>
       <c r="E295" s="3">
-        <f>$D295*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>427.20806515256385</v>
       </c>
       <c r="F295" s="3">
-        <f>$D295*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>4954.7919348474361</v>
       </c>
       <c r="G295" s="2">
-        <f>_xlfn.CHISQ.TEST(B295:C295,E295:F295)</f>
+        <f t="shared" si="18"/>
         <v>0.6789579652010278</v>
       </c>
       <c r="H295" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-8.2080651525638473</v>
       </c>
     </row>
@@ -10382,19 +10428,19 @@
         <v>352</v>
       </c>
       <c r="E296" s="3">
-        <f>$D296*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>27.94077274873699</v>
       </c>
       <c r="F296" s="3">
-        <f>$D296*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>324.059227251263</v>
       </c>
       <c r="G296" s="2">
-        <f>_xlfn.CHISQ.TEST(B296:C296,E296:F296)</f>
+        <f t="shared" si="18"/>
         <v>0.68473011764019276</v>
       </c>
       <c r="H296" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2.0592272512630103</v>
       </c>
     </row>
@@ -10412,19 +10458,19 @@
         <v>88</v>
       </c>
       <c r="E297" s="3">
-        <f>$D297*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>6.9851931871842474</v>
       </c>
       <c r="F297" s="3">
-        <f>$D297*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>81.014806812815749</v>
       </c>
       <c r="G297" s="2">
-        <f>_xlfn.CHISQ.TEST(B297:C297,E297:F297)</f>
+        <f t="shared" si="18"/>
         <v>0.68902535646634255</v>
       </c>
       <c r="H297" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.0148068128157526</v>
       </c>
     </row>
@@ -10442,19 +10488,19 @@
         <v>208</v>
       </c>
       <c r="E298" s="3">
-        <f>$D298*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>16.510456624253674</v>
       </c>
       <c r="F298" s="3">
-        <f>$D298*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>191.48954337574634</v>
       </c>
       <c r="G298" s="2">
-        <f>_xlfn.CHISQ.TEST(B298:C298,E298:F298)</f>
+        <f t="shared" si="18"/>
         <v>0.70241609289195184</v>
       </c>
       <c r="H298" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.4895433757463259</v>
       </c>
     </row>
@@ -10472,19 +10518,19 @@
         <v>31</v>
       </c>
       <c r="E299" s="3">
-        <f>$D299*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>2.4606930545762689</v>
       </c>
       <c r="F299" s="3">
-        <f>$D299*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>28.539306945423732</v>
       </c>
       <c r="G299" s="2">
-        <f>_xlfn.CHISQ.TEST(B299:C299,E299:F299)</f>
+        <f t="shared" si="18"/>
         <v>0.72010670613399452</v>
       </c>
       <c r="H299" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.53930694542373114</v>
       </c>
     </row>
@@ -10502,19 +10548,19 @@
         <v>31</v>
       </c>
       <c r="E300" s="3">
-        <f>$D300*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>2.4606930545762689</v>
       </c>
       <c r="F300" s="3">
-        <f>$D300*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>28.539306945423732</v>
       </c>
       <c r="G300" s="2">
-        <f>_xlfn.CHISQ.TEST(B300:C300,E300:F300)</f>
+        <f t="shared" si="18"/>
         <v>0.72010670613399452</v>
       </c>
       <c r="H300" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.53930694542373114</v>
       </c>
     </row>
@@ -10532,19 +10578,19 @@
         <v>31</v>
       </c>
       <c r="E301" s="3">
-        <f>$D301*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>2.4606930545762689</v>
       </c>
       <c r="F301" s="3">
-        <f>$D301*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>28.539306945423732</v>
       </c>
       <c r="G301" s="2">
-        <f>_xlfn.CHISQ.TEST(B301:C301,E301:F301)</f>
+        <f t="shared" si="18"/>
         <v>0.72010670613399452</v>
       </c>
       <c r="H301" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.53930694542373114</v>
       </c>
     </row>
@@ -10562,19 +10608,19 @@
         <v>9</v>
       </c>
       <c r="E302" s="3">
-        <f>$D302*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>0.71439475778020711</v>
       </c>
       <c r="F302" s="3">
-        <f>$D302*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>8.285605242219793</v>
       </c>
       <c r="G302" s="2">
-        <f>_xlfn.CHISQ.TEST(B302:C302,E302:F302)</f>
+        <f t="shared" si="18"/>
         <v>0.72470844907223941</v>
       </c>
       <c r="H302" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.28560524221979289</v>
       </c>
     </row>
@@ -10592,19 +10638,19 @@
         <v>153</v>
       </c>
       <c r="E303" s="3">
-        <f>$D303*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>12.144710882263521</v>
       </c>
       <c r="F303" s="3">
-        <f>$D303*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>140.85528911773648</v>
       </c>
       <c r="G303" s="2">
-        <f>_xlfn.CHISQ.TEST(B303:C303,E303:F303)</f>
+        <f t="shared" si="18"/>
         <v>0.73209283544899584</v>
       </c>
       <c r="H303" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.1447108822635208</v>
       </c>
     </row>
@@ -10622,19 +10668,19 @@
         <v>20</v>
       </c>
       <c r="E304" s="3">
-        <f>$D304*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>1.5875439061782382</v>
       </c>
       <c r="F304" s="3">
-        <f>$D304*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>18.412456093821763</v>
       </c>
       <c r="G304" s="2">
-        <f>_xlfn.CHISQ.TEST(B304:C304,E304:F304)</f>
+        <f t="shared" si="18"/>
         <v>0.73297374239682345</v>
       </c>
       <c r="H304" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.41245609382176185</v>
       </c>
     </row>
@@ -10652,19 +10698,19 @@
         <v>210</v>
       </c>
       <c r="E305" s="3">
-        <f>$D305*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>16.6692110148715</v>
       </c>
       <c r="F305" s="3">
-        <f>$D305*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>193.33078898512849</v>
       </c>
       <c r="G305" s="2">
-        <f>_xlfn.CHISQ.TEST(B305:C305,E305:F305)</f>
+        <f t="shared" si="18"/>
         <v>0.7340734693434835</v>
       </c>
       <c r="H305" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.3307889851284997</v>
       </c>
     </row>
@@ -10682,19 +10728,19 @@
         <v>284</v>
       </c>
       <c r="E306" s="3">
-        <f>$D306*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>22.543123467730979</v>
       </c>
       <c r="F306" s="3">
-        <f>$D306*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>261.45687653226901</v>
       </c>
       <c r="G306" s="2">
-        <f>_xlfn.CHISQ.TEST(B306:C306,E306:F306)</f>
+        <f t="shared" si="18"/>
         <v>0.7348136646129978</v>
       </c>
       <c r="H306" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.5431234677309789</v>
       </c>
     </row>
@@ -10712,19 +10758,19 @@
         <v>55</v>
       </c>
       <c r="E307" s="3">
-        <f>$D307*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>4.3657457419901551</v>
       </c>
       <c r="F307" s="3">
-        <f>$D307*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>50.634254258009847</v>
       </c>
       <c r="G307" s="2">
-        <f>_xlfn.CHISQ.TEST(B307:C307,E307:F307)</f>
+        <f t="shared" si="18"/>
         <v>0.75172278341542187</v>
       </c>
       <c r="H307" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.63425425800984492</v>
       </c>
     </row>
@@ -10742,19 +10788,19 @@
         <v>17</v>
       </c>
       <c r="E308" s="3">
-        <f>$D308*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>1.3494123202515023</v>
       </c>
       <c r="F308" s="3">
-        <f>$D308*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>15.650587679748497</v>
       </c>
       <c r="G308" s="2">
-        <f>_xlfn.CHISQ.TEST(B308:C308,E308:F308)</f>
+        <f t="shared" si="18"/>
         <v>0.75390769178641037</v>
       </c>
       <c r="H308" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.34941232025150226</v>
       </c>
     </row>
@@ -10772,19 +10818,19 @@
         <v>17</v>
       </c>
       <c r="E309" s="3">
-        <f>$D309*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>1.3494123202515023</v>
       </c>
       <c r="F309" s="3">
-        <f>$D309*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>15.650587679748497</v>
       </c>
       <c r="G309" s="2">
-        <f>_xlfn.CHISQ.TEST(B309:C309,E309:F309)</f>
+        <f t="shared" si="18"/>
         <v>0.75390769178641037</v>
       </c>
       <c r="H309" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.34941232025150226</v>
       </c>
     </row>
@@ -10802,19 +10848,19 @@
         <v>373</v>
       </c>
       <c r="E310" s="3">
-        <f>$D310*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>29.607693850224141</v>
       </c>
       <c r="F310" s="3">
-        <f>$D310*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>343.39230614977583</v>
       </c>
       <c r="G310" s="2">
-        <f>_xlfn.CHISQ.TEST(B310:C310,E310:F310)</f>
+        <f t="shared" si="18"/>
         <v>0.75813117680583042</v>
       </c>
       <c r="H310" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.6076938502241411</v>
       </c>
     </row>
@@ -10832,19 +10878,19 @@
         <v>163</v>
       </c>
       <c r="E311" s="3">
-        <f>$D311*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>12.938482835352641</v>
       </c>
       <c r="F311" s="3">
-        <f>$D311*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>150.06151716464737</v>
       </c>
       <c r="G311" s="2">
-        <f>_xlfn.CHISQ.TEST(B311:C311,E311:F311)</f>
+        <f t="shared" si="18"/>
         <v>0.75840927748331455</v>
       </c>
       <c r="H311" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.0615171646473591</v>
       </c>
     </row>
@@ -10862,19 +10908,19 @@
         <v>308</v>
       </c>
       <c r="E312" s="3">
-        <f>$D312*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>24.448176155144868</v>
       </c>
       <c r="F312" s="3">
-        <f>$D312*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>283.55182384485511</v>
       </c>
       <c r="G312" s="2">
-        <f>_xlfn.CHISQ.TEST(B312:C312,E312:F312)</f>
+        <f t="shared" si="18"/>
         <v>0.76017488544650325</v>
       </c>
       <c r="H312" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.4481761551448677</v>
       </c>
     </row>
@@ -10892,19 +10938,19 @@
         <v>295</v>
       </c>
       <c r="E313" s="3">
-        <f>$D313*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>23.41627261612901</v>
       </c>
       <c r="F313" s="3">
-        <f>$D313*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>271.58372738387101</v>
       </c>
       <c r="G313" s="2">
-        <f>_xlfn.CHISQ.TEST(B313:C313,E313:F313)</f>
+        <f t="shared" si="18"/>
         <v>0.76034086646358223</v>
       </c>
       <c r="H313" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.4162726161290102</v>
       </c>
     </row>
@@ -10922,19 +10968,19 @@
         <v>421</v>
       </c>
       <c r="E314" s="3">
-        <f>$D314*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>33.417799225051908</v>
       </c>
       <c r="F314" s="3">
-        <f>$D314*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>387.58220077494809</v>
       </c>
       <c r="G314" s="2">
-        <f>_xlfn.CHISQ.TEST(B314:C314,E314:F314)</f>
+        <f t="shared" si="18"/>
         <v>0.77544952042841597</v>
       </c>
       <c r="H314" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.5822007749480917</v>
       </c>
     </row>
@@ -10952,19 +10998,19 @@
         <v>137</v>
       </c>
       <c r="E315" s="3">
-        <f>$D315*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>10.874675757320931</v>
       </c>
       <c r="F315" s="3">
-        <f>$D315*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>126.12532424267907</v>
       </c>
       <c r="G315" s="2">
-        <f>_xlfn.CHISQ.TEST(B315:C315,E315:F315)</f>
+        <f t="shared" si="18"/>
         <v>0.78221151480767181</v>
       </c>
       <c r="H315" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.87467575732093117</v>
       </c>
     </row>
@@ -10982,19 +11028,19 @@
         <v>44</v>
       </c>
       <c r="E316" s="3">
-        <f>$D316*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>3.4925965935921237</v>
       </c>
       <c r="F316" s="3">
-        <f>$D316*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>40.507403406407875</v>
       </c>
       <c r="G316" s="2">
-        <f>_xlfn.CHISQ.TEST(B316:C316,E316:F316)</f>
+        <f t="shared" si="18"/>
         <v>0.78353814473697359</v>
       </c>
       <c r="H316" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.49259659359212371</v>
       </c>
     </row>
@@ -11012,19 +11058,19 @@
         <v>68</v>
       </c>
       <c r="E317" s="3">
-        <f>$D317*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>5.397649281006009</v>
       </c>
       <c r="F317" s="3">
-        <f>$D317*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>62.602350718993989</v>
       </c>
       <c r="G317" s="2">
-        <f>_xlfn.CHISQ.TEST(B317:C317,E317:F317)</f>
+        <f t="shared" si="18"/>
         <v>0.78699639276556033</v>
       </c>
       <c r="H317" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.60235071899399095</v>
       </c>
     </row>
@@ -11042,19 +11088,19 @@
         <v>84</v>
       </c>
       <c r="E318" s="3">
-        <f>$D318*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>6.6676844059485996</v>
       </c>
       <c r="F318" s="3">
-        <f>$D318*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>77.332315594051394</v>
       </c>
       <c r="G318" s="2">
-        <f>_xlfn.CHISQ.TEST(B318:C318,E318:F318)</f>
+        <f t="shared" si="18"/>
         <v>0.78755254260195395</v>
       </c>
       <c r="H318" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.66768440594859957</v>
       </c>
     </row>
@@ -11072,19 +11118,19 @@
         <v>84</v>
       </c>
       <c r="E319" s="3">
-        <f>$D319*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>6.6676844059485996</v>
       </c>
       <c r="F319" s="3">
-        <f>$D319*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>77.332315594051394</v>
       </c>
       <c r="G319" s="2">
-        <f>_xlfn.CHISQ.TEST(B319:C319,E319:F319)</f>
+        <f t="shared" si="18"/>
         <v>0.78755254260195395</v>
       </c>
       <c r="H319" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.66768440594859957</v>
       </c>
     </row>
@@ -11102,19 +11148,19 @@
         <v>241</v>
       </c>
       <c r="E320" s="3">
-        <f>$D320*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>19.129904069447768</v>
       </c>
       <c r="F320" s="3">
-        <f>$D320*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>221.87009593055222</v>
       </c>
       <c r="G320" s="2">
-        <f>_xlfn.CHISQ.TEST(B320:C320,E320:F320)</f>
+        <f t="shared" si="18"/>
         <v>0.78774274412335865</v>
       </c>
       <c r="H320" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-1.1299040694477682</v>
       </c>
     </row>
@@ -11132,19 +11178,19 @@
         <v>21</v>
       </c>
       <c r="E321" s="3">
-        <f>$D321*B$363/$D$363</f>
+        <f t="shared" si="16"/>
         <v>1.6669211014871499</v>
       </c>
       <c r="F321" s="3">
-        <f>$D321*C$363/$D$363</f>
+        <f t="shared" si="17"/>
         <v>19.333078898512849</v>
       </c>
       <c r="G321" s="2">
-        <f>_xlfn.CHISQ.TEST(B321:C321,E321:F321)</f>
+        <f t="shared" si="18"/>
         <v>0.78802668108309804</v>
       </c>
       <c r="H321" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.33307889851285011</v>
       </c>
     </row>
@@ -11162,19 +11208,19 @@
         <v>16</v>
       </c>
       <c r="E322" s="3">
-        <f>$D322*B$363/$D$363</f>
+        <f t="shared" ref="E322:E362" si="20">$D322*B$363/$D$363</f>
         <v>1.2700351249425905</v>
       </c>
       <c r="F322" s="3">
-        <f>$D322*C$363/$D$363</f>
+        <f t="shared" ref="F322:F362" si="21">$D322*C$363/$D$363</f>
         <v>14.72996487505741</v>
       </c>
       <c r="G322" s="2">
-        <f>_xlfn.CHISQ.TEST(B322:C322,E322:F322)</f>
+        <f t="shared" ref="G322:G385" si="22">_xlfn.CHISQ.TEST(B322:C322,E322:F322)</f>
         <v>0.80279579566181436</v>
       </c>
       <c r="H322" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>-0.27003512494259052</v>
       </c>
     </row>
@@ -11192,19 +11238,19 @@
         <v>16</v>
       </c>
       <c r="E323" s="3">
-        <f>$D323*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.2700351249425905</v>
       </c>
       <c r="F323" s="3">
-        <f>$D323*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>14.72996487505741</v>
       </c>
       <c r="G323" s="2">
-        <f>_xlfn.CHISQ.TEST(B323:C323,E323:F323)</f>
+        <f t="shared" si="22"/>
         <v>0.80279579566181436</v>
       </c>
       <c r="H323" s="2">
-        <f t="shared" ref="H323:H362" si="5">B323-E323</f>
+        <f t="shared" ref="H323:H362" si="23">B323-E323</f>
         <v>-0.27003512494259052</v>
       </c>
     </row>
@@ -11222,19 +11268,19 @@
         <v>214</v>
       </c>
       <c r="E324" s="3">
-        <f>$D324*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>16.986719796107149</v>
       </c>
       <c r="F324" s="3">
-        <f>$D324*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>197.01328020389286</v>
       </c>
       <c r="G324" s="2">
-        <f>_xlfn.CHISQ.TEST(B324:C324,E324:F324)</f>
+        <f t="shared" si="22"/>
         <v>0.8029617477811678</v>
       </c>
       <c r="H324" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.98671979610714899</v>
       </c>
     </row>
@@ -11252,19 +11298,19 @@
         <v>10</v>
       </c>
       <c r="E325" s="3">
-        <f>$D325*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>0.79377195308911908</v>
       </c>
       <c r="F325" s="3">
-        <f>$D325*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>9.2062280469108817</v>
       </c>
       <c r="G325" s="2">
-        <f>_xlfn.CHISQ.TEST(B325:C325,E325:F325)</f>
+        <f t="shared" si="22"/>
         <v>0.8093649477832332</v>
       </c>
       <c r="H325" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.20622804691088092</v>
       </c>
     </row>
@@ -11282,19 +11328,19 @@
         <v>10</v>
       </c>
       <c r="E326" s="3">
-        <f>$D326*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>0.79377195308911908</v>
       </c>
       <c r="F326" s="3">
-        <f>$D326*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>9.2062280469108817</v>
       </c>
       <c r="G326" s="2">
-        <f>_xlfn.CHISQ.TEST(B326:C326,E326:F326)</f>
+        <f t="shared" si="22"/>
         <v>0.8093649477832332</v>
       </c>
       <c r="H326" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.20622804691088092</v>
       </c>
     </row>
@@ -11312,19 +11358,19 @@
         <v>10</v>
       </c>
       <c r="E327" s="3">
-        <f>$D327*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>0.79377195308911908</v>
       </c>
       <c r="F327" s="3">
-        <f>$D327*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>9.2062280469108817</v>
       </c>
       <c r="G327" s="2">
-        <f>_xlfn.CHISQ.TEST(B327:C327,E327:F327)</f>
+        <f t="shared" si="22"/>
         <v>0.8093649477832332</v>
       </c>
       <c r="H327" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.20622804691088092</v>
       </c>
     </row>
@@ -11342,19 +11388,19 @@
         <v>10</v>
       </c>
       <c r="E328" s="3">
-        <f>$D328*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>0.79377195308911908</v>
       </c>
       <c r="F328" s="3">
-        <f>$D328*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>9.2062280469108817</v>
       </c>
       <c r="G328" s="2">
-        <f>_xlfn.CHISQ.TEST(B328:C328,E328:F328)</f>
+        <f t="shared" si="22"/>
         <v>0.8093649477832332</v>
       </c>
       <c r="H328" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.20622804691088092</v>
       </c>
     </row>
@@ -11372,19 +11418,19 @@
         <v>96</v>
       </c>
       <c r="E329" s="3">
-        <f>$D329*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>7.6202107496555431</v>
       </c>
       <c r="F329" s="3">
-        <f>$D329*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>88.379789250344459</v>
       </c>
       <c r="G329" s="2">
-        <f>_xlfn.CHISQ.TEST(B329:C329,E329:F329)</f>
+        <f t="shared" si="22"/>
         <v>0.81485983617704505</v>
       </c>
       <c r="H329" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.62021074965554313</v>
       </c>
     </row>
@@ -11402,19 +11448,19 @@
         <v>561</v>
       </c>
       <c r="E330" s="3">
-        <f>$D330*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>44.530606568299575</v>
       </c>
       <c r="F330" s="3">
-        <f>$D330*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>516.46939343170038</v>
       </c>
       <c r="G330" s="2">
-        <f>_xlfn.CHISQ.TEST(B330:C330,E330:F330)</f>
+        <f t="shared" si="22"/>
         <v>0.81848638435380106</v>
       </c>
       <c r="H330" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1.4693934317004249</v>
       </c>
     </row>
@@ -11432,19 +11478,19 @@
         <v>572</v>
       </c>
       <c r="E331" s="3">
-        <f>$D331*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>45.40375571669761</v>
       </c>
       <c r="F331" s="3">
-        <f>$D331*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>526.59624428330244</v>
       </c>
       <c r="G331" s="2">
-        <f>_xlfn.CHISQ.TEST(B331:C331,E331:F331)</f>
+        <f t="shared" si="22"/>
         <v>0.82811289784350628</v>
       </c>
       <c r="H331" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-1.40375571669761</v>
       </c>
     </row>
@@ -11462,19 +11508,19 @@
         <v>22</v>
       </c>
       <c r="E332" s="3">
-        <f>$D332*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.7462982967960619</v>
       </c>
       <c r="F332" s="3">
-        <f>$D332*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>20.253701703203937</v>
       </c>
       <c r="G332" s="2">
-        <f>_xlfn.CHISQ.TEST(B332:C332,E332:F332)</f>
+        <f t="shared" si="22"/>
         <v>0.84141094385447435</v>
       </c>
       <c r="H332" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.25370170320393814</v>
       </c>
     </row>
@@ -11492,19 +11538,19 @@
         <v>180</v>
       </c>
       <c r="E333" s="3">
-        <f>$D333*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>14.287895155604142</v>
       </c>
       <c r="F333" s="3">
-        <f>$D333*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>165.71210484439587</v>
       </c>
       <c r="G333" s="2">
-        <f>_xlfn.CHISQ.TEST(B333:C333,E333:F333)</f>
+        <f t="shared" si="22"/>
         <v>0.84434045951755066</v>
       </c>
       <c r="H333" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.71210484439585819</v>
       </c>
     </row>
@@ -11522,19 +11568,19 @@
         <v>46</v>
       </c>
       <c r="E334" s="3">
-        <f>$D334*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>3.6513509842099476</v>
       </c>
       <c r="F334" s="3">
-        <f>$D334*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>42.348649015790052</v>
       </c>
       <c r="G334" s="2">
-        <f>_xlfn.CHISQ.TEST(B334:C334,E334:F334)</f>
+        <f t="shared" si="22"/>
         <v>0.84918319873061987</v>
       </c>
       <c r="H334" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.34864901579005236</v>
       </c>
     </row>
@@ -11552,19 +11598,19 @@
         <v>1054</v>
       </c>
       <c r="E335" s="3">
-        <f>$D335*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>83.663563855593139</v>
       </c>
       <c r="F335" s="3">
-        <f>$D335*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>970.33643614440689</v>
       </c>
       <c r="G335" s="2">
-        <f>_xlfn.CHISQ.TEST(B335:C335,E335:F335)</f>
+        <f t="shared" si="22"/>
         <v>0.84965949892988257</v>
       </c>
       <c r="H335" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-1.6635638555931394</v>
       </c>
     </row>
@@ -11582,19 +11628,19 @@
         <v>15</v>
       </c>
       <c r="E336" s="3">
-        <f>$D336*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.1906579296336786</v>
       </c>
       <c r="F336" s="3">
-        <f>$D336*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>13.809342070366322</v>
       </c>
       <c r="G336" s="2">
-        <f>_xlfn.CHISQ.TEST(B336:C336,E336:F336)</f>
+        <f t="shared" si="22"/>
         <v>0.85550077446864581</v>
       </c>
       <c r="H336" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.19065792963367856</v>
       </c>
     </row>
@@ -11612,19 +11658,19 @@
         <v>416</v>
       </c>
       <c r="E337" s="3">
-        <f>$D337*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>33.020913248507348</v>
       </c>
       <c r="F337" s="3">
-        <f>$D337*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>382.97908675149267</v>
       </c>
       <c r="G337" s="2">
-        <f>_xlfn.CHISQ.TEST(B337:C337,E337:F337)</f>
+        <f t="shared" si="22"/>
         <v>0.85905549230628198</v>
       </c>
       <c r="H337" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.97908675149265179</v>
       </c>
     </row>
@@ -11642,19 +11688,19 @@
         <v>28</v>
       </c>
       <c r="E338" s="3">
-        <f>$D338*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>2.2225614686495332</v>
       </c>
       <c r="F338" s="3">
-        <f>$D338*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>25.777438531350466</v>
       </c>
       <c r="G338" s="2">
-        <f>_xlfn.CHISQ.TEST(B338:C338,E338:F338)</f>
+        <f t="shared" si="22"/>
         <v>0.87635605445485953</v>
       </c>
       <c r="H338" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.22256146864953319</v>
       </c>
     </row>
@@ -11672,19 +11718,19 @@
         <v>281</v>
       </c>
       <c r="E339" s="3">
-        <f>$D339*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>22.304991881804245</v>
       </c>
       <c r="F339" s="3">
-        <f>$D339*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>258.69500811819574</v>
       </c>
       <c r="G339" s="2">
-        <f>_xlfn.CHISQ.TEST(B339:C339,E339:F339)</f>
+        <f t="shared" si="22"/>
         <v>0.87810439595292766</v>
       </c>
       <c r="H339" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.69500811819575503</v>
       </c>
     </row>
@@ -11702,19 +11748,19 @@
         <v>54</v>
       </c>
       <c r="E340" s="3">
-        <f>$D340*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>4.2863685466812429</v>
       </c>
       <c r="F340" s="3">
-        <f>$D340*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>49.713631453318754</v>
       </c>
       <c r="G340" s="2">
-        <f>_xlfn.CHISQ.TEST(B340:C340,E340:F340)</f>
+        <f t="shared" si="22"/>
         <v>0.88537545709904608</v>
       </c>
       <c r="H340" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.2863685466812429</v>
       </c>
     </row>
@@ -11732,19 +11778,19 @@
         <v>11</v>
       </c>
       <c r="E341" s="3">
-        <f>$D341*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>0.87314914839803093</v>
       </c>
       <c r="F341" s="3">
-        <f>$D341*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>10.126850851601969</v>
       </c>
       <c r="G341" s="2">
-        <f>_xlfn.CHISQ.TEST(B341:C341,E341:F341)</f>
+        <f t="shared" si="22"/>
         <v>0.88748734789619399</v>
       </c>
       <c r="H341" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.12685085160196907</v>
       </c>
     </row>
@@ -11762,19 +11808,19 @@
         <v>11</v>
       </c>
       <c r="E342" s="3">
-        <f>$D342*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>0.87314914839803093</v>
       </c>
       <c r="F342" s="3">
-        <f>$D342*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>10.126850851601969</v>
       </c>
       <c r="G342" s="2">
-        <f>_xlfn.CHISQ.TEST(B342:C342,E342:F342)</f>
+        <f t="shared" si="22"/>
         <v>0.88748734789619399</v>
       </c>
       <c r="H342" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.12685085160196907</v>
       </c>
     </row>
@@ -11792,19 +11838,19 @@
         <v>11</v>
       </c>
       <c r="E343" s="3">
-        <f>$D343*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>0.87314914839803093</v>
       </c>
       <c r="F343" s="3">
-        <f>$D343*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>10.126850851601969</v>
       </c>
       <c r="G343" s="2">
-        <f>_xlfn.CHISQ.TEST(B343:C343,E343:F343)</f>
+        <f t="shared" si="22"/>
         <v>0.88748734789619399</v>
       </c>
       <c r="H343" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.12685085160196907</v>
       </c>
     </row>
@@ -11822,19 +11868,19 @@
         <v>11</v>
       </c>
       <c r="E344" s="3">
-        <f>$D344*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>0.87314914839803093</v>
       </c>
       <c r="F344" s="3">
-        <f>$D344*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>10.126850851601969</v>
       </c>
       <c r="G344" s="2">
-        <f>_xlfn.CHISQ.TEST(B344:C344,E344:F344)</f>
+        <f t="shared" si="22"/>
         <v>0.88748734789619399</v>
       </c>
       <c r="H344" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.12685085160196907</v>
       </c>
     </row>
@@ -11852,19 +11898,19 @@
         <v>23</v>
       </c>
       <c r="E345" s="3">
-        <f>$D345*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.8256754921049738</v>
       </c>
       <c r="F345" s="3">
-        <f>$D345*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>21.174324507895026</v>
       </c>
       <c r="G345" s="2">
-        <f>_xlfn.CHISQ.TEST(B345:C345,E345:F345)</f>
+        <f t="shared" si="22"/>
         <v>0.89303573403893932</v>
       </c>
       <c r="H345" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.17432450789502618</v>
       </c>
     </row>
@@ -11882,19 +11928,19 @@
         <v>84</v>
       </c>
       <c r="E346" s="3">
-        <f>$D346*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>6.6676844059485996</v>
       </c>
       <c r="F346" s="3">
-        <f>$D346*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>77.332315594051394</v>
       </c>
       <c r="G346" s="2">
-        <f>_xlfn.CHISQ.TEST(B346:C346,E346:F346)</f>
+        <f t="shared" si="22"/>
         <v>0.89330065304688377</v>
       </c>
       <c r="H346" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.33231559405140043</v>
       </c>
     </row>
@@ -11912,19 +11958,19 @@
         <v>14</v>
       </c>
       <c r="E347" s="3">
-        <f>$D347*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.1112807343247666</v>
       </c>
       <c r="F347" s="3">
-        <f>$D347*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>12.888719265675233</v>
       </c>
       <c r="G347" s="2">
-        <f>_xlfn.CHISQ.TEST(B347:C347,E347:F347)</f>
+        <f t="shared" si="22"/>
         <v>0.91239440044278908</v>
       </c>
       <c r="H347" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.11128073432476659</v>
       </c>
     </row>
@@ -11942,19 +11988,19 @@
         <v>14</v>
       </c>
       <c r="E348" s="3">
-        <f>$D348*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.1112807343247666</v>
       </c>
       <c r="F348" s="3">
-        <f>$D348*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>12.888719265675233</v>
       </c>
       <c r="G348" s="2">
-        <f>_xlfn.CHISQ.TEST(B348:C348,E348:F348)</f>
+        <f t="shared" si="22"/>
         <v>0.91239440044278908</v>
       </c>
       <c r="H348" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.11128073432476659</v>
       </c>
     </row>
@@ -11972,19 +12018,19 @@
         <v>14</v>
       </c>
       <c r="E349" s="3">
-        <f>$D349*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.1112807343247666</v>
       </c>
       <c r="F349" s="3">
-        <f>$D349*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>12.888719265675233</v>
       </c>
       <c r="G349" s="2">
-        <f>_xlfn.CHISQ.TEST(B349:C349,E349:F349)</f>
+        <f t="shared" si="22"/>
         <v>0.91239440044278908</v>
       </c>
       <c r="H349" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.11128073432476659</v>
       </c>
     </row>
@@ -12002,19 +12048,19 @@
         <v>14</v>
       </c>
       <c r="E350" s="3">
-        <f>$D350*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.1112807343247666</v>
       </c>
       <c r="F350" s="3">
-        <f>$D350*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>12.888719265675233</v>
       </c>
       <c r="G350" s="2">
-        <f>_xlfn.CHISQ.TEST(B350:C350,E350:F350)</f>
+        <f t="shared" si="22"/>
         <v>0.91239440044278908</v>
       </c>
       <c r="H350" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.11128073432476659</v>
       </c>
     </row>
@@ -12032,19 +12078,19 @@
         <v>40</v>
       </c>
       <c r="E351" s="3">
-        <f>$D351*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>3.1750878123564763</v>
       </c>
       <c r="F351" s="3">
-        <f>$D351*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>36.824912187643527</v>
       </c>
       <c r="G351" s="2">
-        <f>_xlfn.CHISQ.TEST(B351:C351,E351:F351)</f>
+        <f t="shared" si="22"/>
         <v>0.91843221688797461</v>
       </c>
       <c r="H351" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.1750878123564763</v>
       </c>
     </row>
@@ -12062,19 +12108,19 @@
         <v>160</v>
       </c>
       <c r="E352" s="3">
-        <f>$D352*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>12.700351249425905</v>
       </c>
       <c r="F352" s="3">
-        <f>$D352*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>147.29964875057411</v>
       </c>
       <c r="G352" s="2">
-        <f>_xlfn.CHISQ.TEST(B352:C352,E352:F352)</f>
+        <f t="shared" si="22"/>
         <v>0.93016900455049645</v>
       </c>
       <c r="H352" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.29964875057409479</v>
       </c>
     </row>
@@ -12092,19 +12138,19 @@
         <v>310</v>
       </c>
       <c r="E353" s="3">
-        <f>$D353*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>24.60693054576269</v>
       </c>
       <c r="F353" s="3">
-        <f>$D353*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>285.39306945423732</v>
       </c>
       <c r="G353" s="2">
-        <f>_xlfn.CHISQ.TEST(B353:C353,E353:F353)</f>
+        <f t="shared" si="22"/>
         <v>0.9341817500703733</v>
       </c>
       <c r="H353" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.39306945423730966</v>
       </c>
     </row>
@@ -12122,19 +12168,19 @@
         <v>323</v>
       </c>
       <c r="E354" s="3">
-        <f>$D354*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>25.638834084778544</v>
       </c>
       <c r="F354" s="3">
-        <f>$D354*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>297.36116591522148</v>
       </c>
       <c r="G354" s="2">
-        <f>_xlfn.CHISQ.TEST(B354:C354,E354:F354)</f>
+        <f t="shared" si="22"/>
         <v>0.94074063958339027</v>
       </c>
       <c r="H354" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.36116591522145569</v>
       </c>
     </row>
@@ -12152,19 +12198,19 @@
         <v>5500</v>
       </c>
       <c r="E355" s="3">
-        <f>$D355*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>436.57457419901544</v>
       </c>
       <c r="F355" s="3">
-        <f>$D355*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>5063.4254258009842</v>
       </c>
       <c r="G355" s="2">
-        <f>_xlfn.CHISQ.TEST(B355:C355,E355:F355)</f>
+        <f t="shared" si="22"/>
         <v>0.94331752569306526</v>
       </c>
       <c r="H355" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1.4254258009845557</v>
       </c>
     </row>
@@ -12182,19 +12228,19 @@
         <v>192</v>
       </c>
       <c r="E356" s="3">
-        <f>$D356*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>15.240421499311086</v>
       </c>
       <c r="F356" s="3">
-        <f>$D356*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>176.75957850068892</v>
       </c>
       <c r="G356" s="2">
-        <f>_xlfn.CHISQ.TEST(B356:C356,E356:F356)</f>
+        <f t="shared" si="22"/>
         <v>0.94882287370381779</v>
       </c>
       <c r="H356" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-0.24042149931108625</v>
       </c>
     </row>
@@ -12212,19 +12258,19 @@
         <v>12</v>
       </c>
       <c r="E357" s="3">
-        <f>$D357*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>0.95252634370694289</v>
       </c>
       <c r="F357" s="3">
-        <f>$D357*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>11.047473656293057</v>
       </c>
       <c r="G357" s="2">
-        <f>_xlfn.CHISQ.TEST(B357:C357,E357:F357)</f>
+        <f t="shared" si="22"/>
         <v>0.95956779897531663</v>
       </c>
       <c r="H357" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>4.7473656293057109E-2</v>
       </c>
     </row>
@@ -12242,19 +12288,19 @@
         <v>112</v>
       </c>
       <c r="E358" s="3">
-        <f>$D358*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>8.8902458745981328</v>
       </c>
       <c r="F358" s="3">
-        <f>$D358*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>103.10975412540186</v>
       </c>
       <c r="G358" s="2">
-        <f>_xlfn.CHISQ.TEST(B358:C358,E358:F358)</f>
+        <f t="shared" si="22"/>
         <v>0.96939751857145773</v>
       </c>
       <c r="H358" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.10975412540186724</v>
       </c>
     </row>
@@ -12272,19 +12318,19 @@
         <v>13</v>
       </c>
       <c r="E359" s="3">
-        <f>$D359*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.0319035390158546</v>
       </c>
       <c r="F359" s="3">
-        <f>$D359*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>11.968096460984146</v>
       </c>
       <c r="G359" s="2">
-        <f>_xlfn.CHISQ.TEST(B359:C359,E359:F359)</f>
+        <f t="shared" si="22"/>
         <v>0.97388795041640064</v>
       </c>
       <c r="H359" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-3.1903539015854632E-2</v>
       </c>
     </row>
@@ -12302,19 +12348,19 @@
         <v>13</v>
       </c>
       <c r="E360" s="3">
-        <f>$D360*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.0319035390158546</v>
       </c>
       <c r="F360" s="3">
-        <f>$D360*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>11.968096460984146</v>
       </c>
       <c r="G360" s="2">
-        <f>_xlfn.CHISQ.TEST(B360:C360,E360:F360)</f>
+        <f t="shared" si="22"/>
         <v>0.97388795041640064</v>
       </c>
       <c r="H360" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>-3.1903539015854632E-2</v>
       </c>
     </row>
@@ -12332,19 +12378,19 @@
         <v>904</v>
       </c>
       <c r="E361" s="3">
-        <f>$D361*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>71.756984559256367</v>
       </c>
       <c r="F361" s="3">
-        <f>$D361*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>832.24301544074365</v>
       </c>
       <c r="G361" s="2">
-        <f>_xlfn.CHISQ.TEST(B361:C361,E361:F361)</f>
+        <f t="shared" si="22"/>
         <v>0.97614736996083684</v>
       </c>
       <c r="H361" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.24301544074363335</v>
       </c>
     </row>
@@ -12362,19 +12408,19 @@
         <v>25</v>
       </c>
       <c r="E362" s="3">
-        <f>$D362*B$363/$D$363</f>
+        <f t="shared" si="20"/>
         <v>1.9844298827227975</v>
       </c>
       <c r="F362" s="3">
-        <f>$D362*C$363/$D$363</f>
+        <f t="shared" si="21"/>
         <v>23.015570117277203</v>
       </c>
       <c r="G362" s="2">
-        <f>_xlfn.CHISQ.TEST(B362:C362,E362:F362)</f>
+        <f t="shared" si="22"/>
         <v>0.9908089824183568</v>
       </c>
       <c r="H362" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1.5570117277202478E-2</v>
       </c>
     </row>
@@ -12398,6 +12444,7 @@
   </sortState>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
